--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14247.31992647008</v>
+        <v>14247.31992647009</v>
       </c>
       <c r="C2">
         <v>24634.86310973142</v>
       </c>
       <c r="D2">
-        <v>45321.46318217194</v>
+        <v>45321.46318217191</v>
       </c>
       <c r="E2">
-        <v>65915.85203036517</v>
+        <v>65915.85203036513</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,7 +408,7 @@
         <v>15219.11976823079</v>
       </c>
       <c r="C3">
-        <v>25862.63346144923</v>
+        <v>25862.63346144924</v>
       </c>
       <c r="D3">
         <v>47004.80530547067</v>
@@ -425,13 +425,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C4">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D4">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E4">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C5">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D5">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E5">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C6">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D6">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E6">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,13 +476,13 @@
         <v>14852.24647975296</v>
       </c>
       <c r="C7">
-        <v>25134.79302875731</v>
+        <v>25134.79302875732</v>
       </c>
       <c r="D7">
-        <v>45762.32585037232</v>
+        <v>45762.32585037231</v>
       </c>
       <c r="E7">
-        <v>66880.54035414261</v>
+        <v>66880.54035414258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,13 +493,13 @@
         <v>14852.24647975296</v>
       </c>
       <c r="C8">
-        <v>25134.79302875731</v>
+        <v>25134.79302875732</v>
       </c>
       <c r="D8">
-        <v>45762.32585037232</v>
+        <v>45762.32585037231</v>
       </c>
       <c r="E8">
-        <v>66880.54035414261</v>
+        <v>66880.54035414258</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,13 +510,13 @@
         <v>14494.5343803126</v>
       </c>
       <c r="C9">
-        <v>24422.60542210408</v>
+        <v>24422.60542210407</v>
       </c>
       <c r="D9">
         <v>44534.2406556397</v>
       </c>
       <c r="E9">
-        <v>65131.34367790598</v>
+        <v>65131.3436779059</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,13 +527,13 @@
         <v>14852.24647975296</v>
       </c>
       <c r="C10">
-        <v>25134.79302875731</v>
+        <v>25134.79302875732</v>
       </c>
       <c r="D10">
-        <v>45762.32585037232</v>
+        <v>45762.32585037231</v>
       </c>
       <c r="E10">
-        <v>66880.54035414261</v>
+        <v>66880.54035414258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,13 +544,13 @@
         <v>14852.24647975296</v>
       </c>
       <c r="C11">
-        <v>25134.79302875731</v>
+        <v>25134.79302875732</v>
       </c>
       <c r="D11">
-        <v>45762.32585037232</v>
+        <v>45762.32585037231</v>
       </c>
       <c r="E11">
-        <v>66880.54035414261</v>
+        <v>66880.54035414258</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C12">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D12">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E12">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,7 +578,7 @@
         <v>15219.11976823079</v>
       </c>
       <c r="C13">
-        <v>25862.63346144923</v>
+        <v>25862.63346144924</v>
       </c>
       <c r="D13">
         <v>47004.80530547067</v>
@@ -595,13 +595,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C14">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D14">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E14">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,13 +612,13 @@
         <v>14852.24647975296</v>
       </c>
       <c r="C15">
-        <v>25134.79302875731</v>
+        <v>25134.79302875732</v>
       </c>
       <c r="D15">
-        <v>45762.32585037232</v>
+        <v>45762.32585037231</v>
       </c>
       <c r="E15">
-        <v>66880.54035414261</v>
+        <v>66880.54035414258</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,13 +629,13 @@
         <v>13850.38069900581</v>
       </c>
       <c r="C16">
-        <v>23872.69657268349</v>
+        <v>23872.69657268348</v>
       </c>
       <c r="D16">
-        <v>44054.27275175379</v>
+        <v>44054.27275175378</v>
       </c>
       <c r="E16">
-        <v>64136.37951779193</v>
+        <v>64136.37951779195</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>11750.7025912022</v>
       </c>
       <c r="C17">
-        <v>21242.91426048154</v>
+        <v>21242.91426048155</v>
       </c>
       <c r="D17">
-        <v>41866.93562442984</v>
+        <v>41866.93562442981</v>
       </c>
       <c r="E17">
-        <v>62938.68259955498</v>
+        <v>62938.68259955493</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,7 +663,7 @@
         <v>15219.11976823079</v>
       </c>
       <c r="C18">
-        <v>25862.63346144923</v>
+        <v>25862.63346144924</v>
       </c>
       <c r="D18">
         <v>47004.80530547067</v>
@@ -680,13 +680,13 @@
         <v>13850.38069900581</v>
       </c>
       <c r="C19">
-        <v>23872.69657268349</v>
+        <v>23872.69657268348</v>
       </c>
       <c r="D19">
-        <v>44054.27275175379</v>
+        <v>44054.27275175378</v>
       </c>
       <c r="E19">
-        <v>64136.37951779193</v>
+        <v>64136.37951779195</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>13850.38069900581</v>
       </c>
       <c r="C20">
-        <v>23872.69657268349</v>
+        <v>23872.69657268348</v>
       </c>
       <c r="D20">
-        <v>44054.27275175379</v>
+        <v>44054.27275175378</v>
       </c>
       <c r="E20">
-        <v>64136.37951779193</v>
+        <v>64136.37951779195</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>13850.38069900581</v>
       </c>
       <c r="C21">
-        <v>23872.69657268349</v>
+        <v>23872.69657268348</v>
       </c>
       <c r="D21">
-        <v>44054.27275175379</v>
+        <v>44054.27275175378</v>
       </c>
       <c r="E21">
-        <v>64136.37951779193</v>
+        <v>64136.37951779195</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -734,10 +734,10 @@
         <v>27516.82708419463</v>
       </c>
       <c r="D22">
-        <v>51881.5567807302</v>
+        <v>51881.55678073021</v>
       </c>
       <c r="E22">
-        <v>74628.20596771958</v>
+        <v>74628.20596771955</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14247.31992647008</v>
+        <v>14247.31992647009</v>
       </c>
       <c r="C23">
         <v>24634.86310973142</v>
       </c>
       <c r="D23">
-        <v>45321.46318217194</v>
+        <v>45321.46318217191</v>
       </c>
       <c r="E23">
-        <v>65915.85203036517</v>
+        <v>65915.85203036513</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8384.262940066419</v>
+        <v>8384.262940066415</v>
       </c>
       <c r="C24">
         <v>15803.39635188845</v>
       </c>
       <c r="D24">
-        <v>34687.83885947415</v>
+        <v>34687.83885947416</v>
       </c>
       <c r="E24">
-        <v>53220.3542202914</v>
+        <v>53220.35422029138</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8384.262940066419</v>
+        <v>8384.262940066415</v>
       </c>
       <c r="C25">
         <v>15803.39635188845</v>
       </c>
       <c r="D25">
-        <v>34687.83885947415</v>
+        <v>34687.83885947416</v>
       </c>
       <c r="E25">
-        <v>53220.3542202914</v>
+        <v>53220.35422029138</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8384.262940066419</v>
+        <v>8384.262940066415</v>
       </c>
       <c r="C26">
         <v>15803.39635188845</v>
       </c>
       <c r="D26">
-        <v>34687.83885947415</v>
+        <v>34687.83885947416</v>
       </c>
       <c r="E26">
-        <v>53220.3542202914</v>
+        <v>53220.35422029138</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -822,7 +822,7 @@
         <v>42507.74532443135</v>
       </c>
       <c r="E27">
-        <v>63878.84843273855</v>
+        <v>63878.84843273851</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -839,7 +839,7 @@
         <v>42507.74532443135</v>
       </c>
       <c r="E28">
-        <v>63878.84843273855</v>
+        <v>63878.84843273851</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -856,7 +856,7 @@
         <v>42507.74532443135</v>
       </c>
       <c r="E29">
-        <v>63878.84843273855</v>
+        <v>63878.84843273851</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -870,10 +870,10 @@
         <v>32517.72813780316</v>
       </c>
       <c r="D30">
-        <v>54826.67371660372</v>
+        <v>54826.67371660368</v>
       </c>
       <c r="E30">
-        <v>77784.8748874255</v>
+        <v>77784.87488742547</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -887,10 +887,10 @@
         <v>32517.72813780316</v>
       </c>
       <c r="D31">
-        <v>54826.67371660372</v>
+        <v>54826.67371660368</v>
       </c>
       <c r="E31">
-        <v>77784.8748874255</v>
+        <v>77784.87488742547</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -901,13 +901,13 @@
         <v>21389.52555851178</v>
       </c>
       <c r="C32">
-        <v>33447.41385055688</v>
+        <v>33447.41385055687</v>
       </c>
       <c r="D32">
-        <v>56098.13122080747</v>
+        <v>56098.13122080746</v>
       </c>
       <c r="E32">
-        <v>79191.37768070157</v>
+        <v>79191.3776807016</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -921,10 +921,10 @@
         <v>32517.72813780316</v>
       </c>
       <c r="D33">
-        <v>54826.67371660372</v>
+        <v>54826.67371660368</v>
       </c>
       <c r="E33">
-        <v>77784.8748874255</v>
+        <v>77784.87488742547</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -935,13 +935,13 @@
         <v>24247.24017977631</v>
       </c>
       <c r="C34">
-        <v>36942.34317073498</v>
+        <v>36942.343170735</v>
       </c>
       <c r="D34">
-        <v>59809.4164845802</v>
+        <v>59809.41648458017</v>
       </c>
       <c r="E34">
-        <v>82819.58726174873</v>
+        <v>82819.58726174879</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,16 +949,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>24642.08141529111</v>
+        <v>24642.08141529112</v>
       </c>
       <c r="C35">
         <v>37766.43132602434</v>
       </c>
       <c r="D35">
-        <v>60796.53279957236</v>
+        <v>60796.53279957237</v>
       </c>
       <c r="E35">
-        <v>83611.18116296173</v>
+        <v>83611.18116296176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,13 +969,13 @@
         <v>18543.61735566763</v>
       </c>
       <c r="C36">
-        <v>29500.87626490253</v>
+        <v>29500.87626490255</v>
       </c>
       <c r="D36">
-        <v>52255.06241214502</v>
+        <v>52255.06241214499</v>
       </c>
       <c r="E36">
-        <v>75906.81586510173</v>
+        <v>75906.81586510177</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>21511.59131402267</v>
       </c>
       <c r="C37">
-        <v>33124.36555486189</v>
+        <v>33124.36555486191</v>
       </c>
       <c r="D37">
-        <v>55090.92371155501</v>
+        <v>55090.92371155502</v>
       </c>
       <c r="E37">
-        <v>77893.34882494653</v>
+        <v>77893.34882494652</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>21511.59131402267</v>
       </c>
       <c r="C38">
-        <v>33124.36555486189</v>
+        <v>33124.36555486191</v>
       </c>
       <c r="D38">
-        <v>55090.92371155501</v>
+        <v>55090.92371155502</v>
       </c>
       <c r="E38">
-        <v>77893.34882494653</v>
+        <v>77893.34882494652</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>23690.65612365315</v>
       </c>
       <c r="C39">
-        <v>36011.05679303146</v>
+        <v>36011.0567930315</v>
       </c>
       <c r="D39">
-        <v>58557.0841810841</v>
+        <v>58557.08418108413</v>
       </c>
       <c r="E39">
-        <v>81517.9655114465</v>
+        <v>81517.96551144647</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>24642.08141529111</v>
+        <v>24642.08141529112</v>
       </c>
       <c r="C40">
         <v>37766.43132602434</v>
       </c>
       <c r="D40">
-        <v>60796.53279957236</v>
+        <v>60796.53279957237</v>
       </c>
       <c r="E40">
-        <v>83611.18116296173</v>
+        <v>83611.18116296176</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>24642.08141529111</v>
+        <v>24642.08141529112</v>
       </c>
       <c r="C41">
         <v>37766.43132602434</v>
       </c>
       <c r="D41">
-        <v>60796.53279957236</v>
+        <v>60796.53279957237</v>
       </c>
       <c r="E41">
-        <v>83611.18116296173</v>
+        <v>83611.18116296176</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>19400.42300492263</v>
       </c>
       <c r="C42">
-        <v>30754.21624988243</v>
+        <v>30754.21624988244</v>
       </c>
       <c r="D42">
-        <v>53465.24096536028</v>
+        <v>53465.24096536027</v>
       </c>
       <c r="E42">
         <v>77068.00860253006</v>
@@ -1088,10 +1088,10 @@
         <v>19933.49151680534</v>
       </c>
       <c r="C43">
-        <v>31706.66697718317</v>
+        <v>31706.66697718318</v>
       </c>
       <c r="D43">
-        <v>54767.33349189895</v>
+        <v>54767.33349189901</v>
       </c>
       <c r="E43">
         <v>78509.30608285553</v>
@@ -1102,16 +1102,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18110.48664933654</v>
+        <v>18110.48664933653</v>
       </c>
       <c r="C44">
-        <v>30346.35814440407</v>
+        <v>30346.35814440408</v>
       </c>
       <c r="D44">
         <v>53985.93428249718</v>
       </c>
       <c r="E44">
-        <v>77979.88038047489</v>
+        <v>77979.88038047486</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>17460.18474641475</v>
+        <v>17460.18474641474</v>
       </c>
       <c r="C45">
-        <v>28354.63049916359</v>
+        <v>28354.63049916358</v>
       </c>
       <c r="D45">
         <v>51071.58862854118</v>
       </c>
       <c r="E45">
-        <v>74587.73685417567</v>
+        <v>74587.73685417566</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>22054.59337823234</v>
       </c>
       <c r="C46">
-        <v>34052.88175683251</v>
+        <v>34052.88175683252</v>
       </c>
       <c r="D46">
-        <v>56365.69146822898</v>
+        <v>56365.69146822902</v>
       </c>
       <c r="E46">
-        <v>79291.25227834879</v>
+        <v>79291.25227834878</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1153,13 +1153,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>18986.23376001243</v>
+        <v>18986.23376001242</v>
       </c>
       <c r="C47">
-        <v>30378.37829516255</v>
+        <v>30378.37829516257</v>
       </c>
       <c r="D47">
-        <v>53521.28920405488</v>
+        <v>53521.28920405487</v>
       </c>
       <c r="E47">
         <v>77341.43698909765</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>17943.66825682895</v>
+        <v>17943.66825682896</v>
       </c>
       <c r="C48">
-        <v>29275.85094275167</v>
+        <v>29275.85094275166</v>
       </c>
       <c r="D48">
-        <v>52384.2848312819</v>
+        <v>52384.28483128187</v>
       </c>
       <c r="E48">
-        <v>76077.68362337661</v>
+        <v>76077.68362337658</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>15333.66943352815</v>
       </c>
       <c r="C49">
-        <v>24877.07456776401</v>
+        <v>24877.07456776402</v>
       </c>
       <c r="D49">
-        <v>41178.31536977955</v>
+        <v>41178.31536977957</v>
       </c>
       <c r="E49">
         <v>56672.4463552068</v>
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>16876.37643765787</v>
+        <v>16876.37643765786</v>
       </c>
       <c r="C50">
         <v>26055.19510452119</v>
       </c>
       <c r="D50">
-        <v>42498.31075411559</v>
+        <v>42498.31075411558</v>
       </c>
       <c r="E50">
         <v>58641.14447274366</v>
@@ -1221,16 +1221,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>11091.10108761781</v>
+        <v>11091.1010876178</v>
       </c>
       <c r="C51">
         <v>19808.32040784265</v>
       </c>
       <c r="D51">
-        <v>36431.96171956167</v>
+        <v>36431.96171956168</v>
       </c>
       <c r="E51">
-        <v>51407.35197681763</v>
+        <v>51407.35197681761</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1238,16 +1238,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11932.74860531296</v>
+        <v>11932.74860531297</v>
       </c>
       <c r="C52">
-        <v>21316.09183464864</v>
+        <v>21316.09183464863</v>
       </c>
       <c r="D52">
-        <v>38459.31928360288</v>
+        <v>38459.31928360289</v>
       </c>
       <c r="E52">
-        <v>54317.72192364627</v>
+        <v>54317.72192364628</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11669.59399965403</v>
+        <v>11669.59399965404</v>
       </c>
       <c r="C53">
         <v>20343.05354672615</v>
@@ -1264,7 +1264,7 @@
         <v>36883.65984396022</v>
       </c>
       <c r="E53">
-        <v>52028.23496688967</v>
+        <v>52028.23496688968</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>10744.87594109923</v>
       </c>
       <c r="C54">
-        <v>19157.13973436569</v>
+        <v>19157.13973436568</v>
       </c>
       <c r="D54">
-        <v>35394.29735742784</v>
+        <v>35394.29735742782</v>
       </c>
       <c r="E54">
-        <v>49839.92162274462</v>
+        <v>49839.92162274459</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>16876.37643765787</v>
+        <v>16876.37643765786</v>
       </c>
       <c r="C55">
         <v>26055.19510452119</v>
       </c>
       <c r="D55">
-        <v>42498.31075411559</v>
+        <v>42498.31075411558</v>
       </c>
       <c r="E55">
         <v>58641.14447274366</v>
@@ -1312,10 +1312,10 @@
         <v>26049.28964632601</v>
       </c>
       <c r="D56">
-        <v>43963.3690808697</v>
+        <v>43963.36908086968</v>
       </c>
       <c r="E56">
-        <v>61333.77680227986</v>
+        <v>61333.77680227985</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>10828.56335311937</v>
+        <v>10828.56335311938</v>
       </c>
       <c r="C57">
-        <v>19600.57854070745</v>
+        <v>19600.57854070746</v>
       </c>
       <c r="D57">
-        <v>37322.13931102863</v>
+        <v>37322.13931102862</v>
       </c>
       <c r="E57">
-        <v>54113.31822007465</v>
+        <v>54113.31822007467</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1346,10 +1346,10 @@
         <v>22315.7642149707</v>
       </c>
       <c r="D58">
-        <v>41610.17949519415</v>
+        <v>41610.17949519414</v>
       </c>
       <c r="E58">
-        <v>61226.41613507977</v>
+        <v>61226.41613507973</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1363,10 +1363,10 @@
         <v>22315.7642149707</v>
       </c>
       <c r="D59">
-        <v>41610.17949519415</v>
+        <v>41610.17949519414</v>
       </c>
       <c r="E59">
-        <v>61226.41613507977</v>
+        <v>61226.41613507973</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1374,13 +1374,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>8745.145578627917</v>
+        <v>8745.145578627913</v>
       </c>
       <c r="C60">
         <v>15857.81202166994</v>
       </c>
       <c r="D60">
-        <v>33519.10090523859</v>
+        <v>33519.10090523861</v>
       </c>
       <c r="E60">
         <v>50820.0828271885</v>
@@ -1391,13 +1391,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8745.145578627917</v>
+        <v>8745.145578627913</v>
       </c>
       <c r="C61">
         <v>15857.81202166994</v>
       </c>
       <c r="D61">
-        <v>33519.10090523859</v>
+        <v>33519.10090523861</v>
       </c>
       <c r="E61">
         <v>50820.0828271885</v>
@@ -1408,16 +1408,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4703.875541662314</v>
+        <v>4703.875541662313</v>
       </c>
       <c r="C62">
         <v>10303.58852530709</v>
       </c>
       <c r="D62">
-        <v>28565.17883946035</v>
+        <v>28565.17883946037</v>
       </c>
       <c r="E62">
-        <v>47026.5120756082</v>
+        <v>47026.51207560818</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1425,16 +1425,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4703.875541662314</v>
+        <v>4703.875541662313</v>
       </c>
       <c r="C63">
         <v>10303.58852530709</v>
       </c>
       <c r="D63">
-        <v>28565.17883946035</v>
+        <v>28565.17883946037</v>
       </c>
       <c r="E63">
-        <v>47026.5120756082</v>
+        <v>47026.51207560818</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1448,10 +1448,10 @@
         <v>8687.772772739549</v>
       </c>
       <c r="D64">
-        <v>26325.60986258906</v>
+        <v>26325.60986258904</v>
       </c>
       <c r="E64">
-        <v>44013.54208609464</v>
+        <v>44013.5420860946</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1465,10 +1465,10 @@
         <v>8687.772772739549</v>
       </c>
       <c r="D65">
-        <v>26325.60986258906</v>
+        <v>26325.60986258904</v>
       </c>
       <c r="E65">
-        <v>44013.54208609464</v>
+        <v>44013.5420860946</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>26375.04995609797</v>
       </c>
       <c r="D66">
-        <v>49190.58783381106</v>
+        <v>49190.58783381108</v>
       </c>
       <c r="E66">
-        <v>73147.40173356999</v>
+        <v>73147.40173357002</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C67">
         <v>27163.69673108246</v>
       </c>
       <c r="D67">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E67">
         <v>74684.64018796563</v>
@@ -1516,10 +1516,10 @@
         <v>26375.04995609797</v>
       </c>
       <c r="D68">
-        <v>49190.58783381106</v>
+        <v>49190.58783381108</v>
       </c>
       <c r="E68">
-        <v>73147.40173356999</v>
+        <v>73147.40173357002</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1527,13 +1527,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C69">
         <v>27163.69673108246</v>
       </c>
       <c r="D69">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E69">
         <v>74684.64018796563</v>
@@ -1544,13 +1544,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C70">
         <v>27163.69673108246</v>
       </c>
       <c r="D70">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E70">
         <v>74684.64018796563</v>
@@ -1567,10 +1567,10 @@
         <v>29628.59963881249</v>
       </c>
       <c r="D71">
-        <v>53688.89314159944</v>
+        <v>53688.89314159947</v>
       </c>
       <c r="E71">
-        <v>77910.5924776696</v>
+        <v>77910.59247766962</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1578,13 +1578,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C72">
         <v>27163.69673108246</v>
       </c>
       <c r="D72">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E72">
         <v>74684.64018796563</v>
@@ -1595,13 +1595,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C73">
         <v>27163.69673108246</v>
       </c>
       <c r="D73">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E73">
         <v>74684.64018796563</v>
@@ -1612,13 +1612,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C74">
         <v>27163.69673108246</v>
       </c>
       <c r="D74">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E74">
         <v>74684.64018796563</v>
@@ -1632,13 +1632,13 @@
         <v>10731.6300281326</v>
       </c>
       <c r="C75">
-        <v>19169.52638578823</v>
+        <v>19169.52638578822</v>
       </c>
       <c r="D75">
-        <v>40528.45506973213</v>
+        <v>40528.45506973212</v>
       </c>
       <c r="E75">
-        <v>63929.96987323837</v>
+        <v>63929.96987323842</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1646,13 +1646,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>16531.78629927633</v>
+        <v>16531.78629927634</v>
       </c>
       <c r="C76">
         <v>27163.69673108246</v>
       </c>
       <c r="D76">
-        <v>50469.39508240636</v>
+        <v>50469.3950824064</v>
       </c>
       <c r="E76">
         <v>74684.64018796563</v>
@@ -1669,10 +1669,10 @@
         <v>25880.02524292409</v>
       </c>
       <c r="D77">
-        <v>49404.00267251243</v>
+        <v>49404.00267251246</v>
       </c>
       <c r="E77">
-        <v>73950.23151847621</v>
+        <v>73950.23151847623</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>25880.02524292409</v>
       </c>
       <c r="D78">
-        <v>49404.00267251243</v>
+        <v>49404.00267251246</v>
       </c>
       <c r="E78">
-        <v>73950.23151847621</v>
+        <v>73950.23151847623</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1703,10 +1703,10 @@
         <v>25880.02524292409</v>
       </c>
       <c r="D79">
-        <v>49404.00267251243</v>
+        <v>49404.00267251246</v>
       </c>
       <c r="E79">
-        <v>73950.23151847621</v>
+        <v>73950.23151847623</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1720,10 +1720,10 @@
         <v>25880.02524292409</v>
       </c>
       <c r="D80">
-        <v>49404.00267251243</v>
+        <v>49404.00267251246</v>
       </c>
       <c r="E80">
-        <v>73950.23151847621</v>
+        <v>73950.23151847623</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1740,7 +1740,7 @@
         <v>56065.63163647549</v>
       </c>
       <c r="E81">
-        <v>78400.01417952434</v>
+        <v>78400.01417952438</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1757,7 +1757,7 @@
         <v>56065.63163647549</v>
       </c>
       <c r="E82">
-        <v>78400.01417952434</v>
+        <v>78400.01417952438</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>11293.49408632204</v>
       </c>
       <c r="C83">
-        <v>20992.15691181016</v>
+        <v>20992.15691181015</v>
       </c>
       <c r="D83">
-        <v>43027.78303311495</v>
+        <v>43027.78303311494</v>
       </c>
       <c r="E83">
-        <v>65824.26793913504</v>
+        <v>65824.26793913507</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>11293.49408632204</v>
       </c>
       <c r="C84">
-        <v>20992.15691181016</v>
+        <v>20992.15691181015</v>
       </c>
       <c r="D84">
-        <v>43027.78303311495</v>
+        <v>43027.78303311494</v>
       </c>
       <c r="E84">
-        <v>65824.26793913504</v>
+        <v>65824.26793913507</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1805,7 +1805,7 @@
         <v>29198.86263615396</v>
       </c>
       <c r="D85">
-        <v>53063.3439865617</v>
+        <v>53063.34398656168</v>
       </c>
       <c r="E85">
         <v>76062.66852957863</v>
@@ -1822,7 +1822,7 @@
         <v>29198.86263615396</v>
       </c>
       <c r="D86">
-        <v>53063.3439865617</v>
+        <v>53063.34398656168</v>
       </c>
       <c r="E86">
         <v>76062.66852957863</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>14991.6420199796</v>
+        <v>14991.64201997961</v>
       </c>
       <c r="C87">
-        <v>28782.32034727524</v>
+        <v>28782.32034727526</v>
       </c>
       <c r="D87">
-        <v>53705.24316849379</v>
+        <v>53705.24316849382</v>
       </c>
       <c r="E87">
-        <v>77172.56129536097</v>
+        <v>77172.56129536092</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>14991.6420199796</v>
+        <v>14991.64201997961</v>
       </c>
       <c r="C88">
-        <v>28782.32034727524</v>
+        <v>28782.32034727526</v>
       </c>
       <c r="D88">
-        <v>53705.24316849379</v>
+        <v>53705.24316849382</v>
       </c>
       <c r="E88">
-        <v>77172.56129536097</v>
+        <v>77172.56129536092</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>14991.6420199796</v>
+        <v>14991.64201997961</v>
       </c>
       <c r="C89">
-        <v>28782.32034727524</v>
+        <v>28782.32034727526</v>
       </c>
       <c r="D89">
-        <v>53705.24316849379</v>
+        <v>53705.24316849382</v>
       </c>
       <c r="E89">
-        <v>77172.56129536097</v>
+        <v>77172.56129536092</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,10 +1890,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D90">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E90">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1907,10 +1907,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D91">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E91">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1924,10 +1924,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D92">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E92">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1941,10 +1941,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D93">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E93">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1955,13 +1955,13 @@
         <v>50774.70512296088</v>
       </c>
       <c r="C94">
-        <v>62289.03794492727</v>
+        <v>62289.03794492725</v>
       </c>
       <c r="D94">
         <v>78365.2554416802</v>
       </c>
       <c r="E94">
-        <v>94472.79061009554</v>
+        <v>94472.79061009552</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1975,10 +1975,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D95">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E95">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1992,10 +1992,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D96">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E96">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2009,10 +2009,10 @@
         <v>61313.92099646317</v>
       </c>
       <c r="D97">
-        <v>77504.26455576462</v>
+        <v>77504.26455576465</v>
       </c>
       <c r="E97">
-        <v>94093.15471251631</v>
+        <v>94093.15471251629</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2023,13 +2023,13 @@
         <v>47361.45469153994</v>
       </c>
       <c r="C98">
-        <v>59186.54916802222</v>
+        <v>59186.5491680222</v>
       </c>
       <c r="D98">
-        <v>77209.83912597808</v>
+        <v>77209.83912597805</v>
       </c>
       <c r="E98">
-        <v>94132.15272647288</v>
+        <v>94132.15272647295</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>47361.45469153994</v>
       </c>
       <c r="C99">
-        <v>59186.54916802222</v>
+        <v>59186.5491680222</v>
       </c>
       <c r="D99">
-        <v>77209.83912597808</v>
+        <v>77209.83912597805</v>
       </c>
       <c r="E99">
-        <v>94132.15272647288</v>
+        <v>94132.15272647295</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>46355.40006729648</v>
+        <v>46355.40006729647</v>
       </c>
       <c r="C100">
         <v>57757.47973355966</v>
       </c>
       <c r="D100">
-        <v>75659.59506041624</v>
+        <v>75659.59506041631</v>
       </c>
       <c r="E100">
         <v>93020.86472484807</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>46355.40006729648</v>
+        <v>46355.40006729647</v>
       </c>
       <c r="C101">
         <v>57757.47973355966</v>
       </c>
       <c r="D101">
-        <v>75659.59506041624</v>
+        <v>75659.59506041631</v>
       </c>
       <c r="E101">
         <v>93020.86472484807</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>46355.40006729648</v>
+        <v>46355.40006729647</v>
       </c>
       <c r="C102">
         <v>57757.47973355966</v>
       </c>
       <c r="D102">
-        <v>75659.59506041624</v>
+        <v>75659.59506041631</v>
       </c>
       <c r="E102">
         <v>93020.86472484807</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>43370.18480416856</v>
+        <v>43370.18480416857</v>
       </c>
       <c r="C103">
-        <v>56003.36936083169</v>
+        <v>56003.3693608317</v>
       </c>
       <c r="D103">
-        <v>75412.70938092898</v>
+        <v>75412.70938092901</v>
       </c>
       <c r="E103">
-        <v>92926.84862515055</v>
+        <v>92926.84862515058</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>43370.18480416856</v>
+        <v>43370.18480416857</v>
       </c>
       <c r="C104">
-        <v>56003.36936083169</v>
+        <v>56003.3693608317</v>
       </c>
       <c r="D104">
-        <v>75412.70938092898</v>
+        <v>75412.70938092901</v>
       </c>
       <c r="E104">
-        <v>92926.84862515055</v>
+        <v>92926.84862515058</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>43937.97506251557</v>
+        <v>43937.97506251556</v>
       </c>
       <c r="C105">
-        <v>56147.50732332804</v>
+        <v>56147.50732332803</v>
       </c>
       <c r="D105">
-        <v>75551.15204737557</v>
+        <v>75551.1520473756</v>
       </c>
       <c r="E105">
-        <v>93270.05449642787</v>
+        <v>93270.05449642788</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2162,10 +2162,10 @@
         <v>58279.42901665888</v>
       </c>
       <c r="D106">
-        <v>77878.94577993645</v>
+        <v>77878.94577993643</v>
       </c>
       <c r="E106">
-        <v>94855.98960310042</v>
+        <v>94855.98960310045</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2179,10 +2179,10 @@
         <v>58279.42901665888</v>
       </c>
       <c r="D107">
-        <v>77878.94577993645</v>
+        <v>77878.94577993643</v>
       </c>
       <c r="E107">
-        <v>94855.98960310042</v>
+        <v>94855.98960310045</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>45270.49212023694</v>
+        <v>45270.49212023693</v>
       </c>
       <c r="C108">
-        <v>58360.22569915345</v>
+        <v>58360.22569915342</v>
       </c>
       <c r="D108">
-        <v>77965.63330185358</v>
+        <v>77965.63330185355</v>
       </c>
       <c r="E108">
-        <v>95153.72172777943</v>
+        <v>95153.72172777947</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>42340.54396044494</v>
+        <v>42340.54396044493</v>
       </c>
       <c r="C109">
-        <v>55212.10189458534</v>
+        <v>55212.10189458536</v>
       </c>
       <c r="D109">
-        <v>74758.01874288257</v>
+        <v>74758.01874288253</v>
       </c>
       <c r="E109">
-        <v>92443.14932898054</v>
+        <v>92443.14932898064</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>42340.54396044494</v>
+        <v>42340.54396044493</v>
       </c>
       <c r="C110">
-        <v>55212.10189458534</v>
+        <v>55212.10189458536</v>
       </c>
       <c r="D110">
-        <v>74758.01874288257</v>
+        <v>74758.01874288253</v>
       </c>
       <c r="E110">
-        <v>92443.14932898054</v>
+        <v>92443.14932898064</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>42340.54396044494</v>
+        <v>42340.54396044493</v>
       </c>
       <c r="C111">
-        <v>55212.10189458534</v>
+        <v>55212.10189458536</v>
       </c>
       <c r="D111">
-        <v>74758.01874288257</v>
+        <v>74758.01874288253</v>
       </c>
       <c r="E111">
-        <v>92443.14932898054</v>
+        <v>92443.14932898064</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2267,7 +2267,7 @@
         <v>76137.67356133206</v>
       </c>
       <c r="E112">
-        <v>93375.97634570404</v>
+        <v>93375.97634570407</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2281,10 +2281,10 @@
         <v>53665.38934178191</v>
       </c>
       <c r="D113">
-        <v>73789.08583262344</v>
+        <v>73789.08583262347</v>
       </c>
       <c r="E113">
-        <v>91873.71587307034</v>
+        <v>91873.71587307028</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,16 +2292,16 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>41483.77749723607</v>
+        <v>41483.77749723605</v>
       </c>
       <c r="C114">
-        <v>54818.36280773747</v>
+        <v>54818.36280773746</v>
       </c>
       <c r="D114">
         <v>75090.73066271866</v>
       </c>
       <c r="E114">
-        <v>92920.81746420723</v>
+        <v>92920.81746420724</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2318,7 +2318,7 @@
         <v>76137.67356133206</v>
       </c>
       <c r="E115">
-        <v>93375.97634570404</v>
+        <v>93375.97634570407</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2335,7 +2335,7 @@
         <v>76137.67356133206</v>
       </c>
       <c r="E116">
-        <v>93375.97634570404</v>
+        <v>93375.97634570407</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2349,10 +2349,10 @@
         <v>53665.38934178191</v>
       </c>
       <c r="D117">
-        <v>73789.08583262344</v>
+        <v>73789.08583262347</v>
       </c>
       <c r="E117">
-        <v>91873.71587307034</v>
+        <v>91873.71587307028</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,16 +2360,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>42181.08470805668</v>
+        <v>42181.08470805667</v>
       </c>
       <c r="C118">
         <v>55985.55048913313</v>
       </c>
       <c r="D118">
-        <v>76364.48647729905</v>
+        <v>76364.48647729904</v>
       </c>
       <c r="E118">
-        <v>93909.41249546438</v>
+        <v>93909.41249546439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>37428.45300753671</v>
+        <v>37428.45300753672</v>
       </c>
       <c r="C119">
-        <v>50746.12396320345</v>
+        <v>50746.12396320342</v>
       </c>
       <c r="D119">
-        <v>71608.90018129779</v>
+        <v>71608.90018129778</v>
       </c>
       <c r="E119">
-        <v>90442.47749426501</v>
+        <v>90442.47749426504</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,10 +2394,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>47098.95426336401</v>
+        <v>47098.95426336404</v>
       </c>
       <c r="C120">
-        <v>58836.46110591765</v>
+        <v>58836.46110591763</v>
       </c>
       <c r="D120">
         <v>76483.27031909207</v>
@@ -2411,10 +2411,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>47098.95426336401</v>
+        <v>47098.95426336404</v>
       </c>
       <c r="C121">
-        <v>58836.46110591765</v>
+        <v>58836.46110591763</v>
       </c>
       <c r="D121">
         <v>76483.27031909207</v>
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>42798.98415522605</v>
+        <v>42798.98415522604</v>
       </c>
       <c r="C122">
-        <v>55899.90180973719</v>
+        <v>55899.9018097372</v>
       </c>
       <c r="D122">
         <v>74925.79360514786</v>
       </c>
       <c r="E122">
-        <v>92305.39333226156</v>
+        <v>92305.39333226153</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>42798.98415522605</v>
+        <v>42798.98415522604</v>
       </c>
       <c r="C123">
-        <v>55899.90180973719</v>
+        <v>55899.9018097372</v>
       </c>
       <c r="D123">
         <v>74925.79360514786</v>
       </c>
       <c r="E123">
-        <v>92305.39333226156</v>
+        <v>92305.39333226153</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>42798.98415522605</v>
+        <v>42798.98415522604</v>
       </c>
       <c r="C124">
-        <v>55899.90180973719</v>
+        <v>55899.9018097372</v>
       </c>
       <c r="D124">
         <v>74925.79360514786</v>
       </c>
       <c r="E124">
-        <v>92305.39333226156</v>
+        <v>92305.39333226153</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>40934.93571335496</v>
+        <v>40934.93571335497</v>
       </c>
       <c r="C125">
-        <v>54771.76311234348</v>
+        <v>54771.76311234349</v>
       </c>
       <c r="D125">
-        <v>74199.25472669065</v>
+        <v>74199.25472669063</v>
       </c>
       <c r="E125">
-        <v>91497.0347449776</v>
+        <v>91497.03474497757</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>41679.16436001897</v>
+        <v>41679.16436001896</v>
       </c>
       <c r="C126">
-        <v>55959.82912343117</v>
+        <v>55959.82912343112</v>
       </c>
       <c r="D126">
-        <v>75502.71190388111</v>
+        <v>75502.71190388109</v>
       </c>
       <c r="E126">
         <v>92565.77182329018</v>
@@ -2513,13 +2513,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>44136.591282489</v>
+        <v>44136.59128248897</v>
       </c>
       <c r="C127">
-        <v>58807.62410788718</v>
+        <v>58807.62410788721</v>
       </c>
       <c r="D127">
-        <v>77754.41448564349</v>
+        <v>77754.41448564353</v>
       </c>
       <c r="E127">
         <v>94267.02637435494</v>
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>45525.32032909888</v>
+        <v>45525.32032909887</v>
       </c>
       <c r="C128">
-        <v>58418.19134841895</v>
+        <v>58418.19134841899</v>
       </c>
       <c r="D128">
-        <v>76394.10686824328</v>
+        <v>76394.10686824324</v>
       </c>
       <c r="E128">
-        <v>93349.94711965829</v>
+        <v>93349.94711965826</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,16 +2547,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>45525.32032909888</v>
+        <v>45525.32032909887</v>
       </c>
       <c r="C129">
-        <v>58418.19134841895</v>
+        <v>58418.19134841899</v>
       </c>
       <c r="D129">
-        <v>76394.10686824328</v>
+        <v>76394.10686824324</v>
       </c>
       <c r="E129">
-        <v>93349.94711965829</v>
+        <v>93349.94711965826</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>47544.40515868461</v>
+        <v>47544.40515868462</v>
       </c>
       <c r="C130">
-        <v>58566.04333162865</v>
+        <v>58566.04333162866</v>
       </c>
       <c r="D130">
-        <v>75531.023413205</v>
+        <v>75531.02341320502</v>
       </c>
       <c r="E130">
-        <v>92710.06856572672</v>
+        <v>92710.06856572676</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>47544.40515868461</v>
+        <v>47544.40515868462</v>
       </c>
       <c r="C131">
-        <v>58566.04333162865</v>
+        <v>58566.04333162866</v>
       </c>
       <c r="D131">
-        <v>75531.023413205</v>
+        <v>75531.02341320502</v>
       </c>
       <c r="E131">
-        <v>92710.06856572672</v>
+        <v>92710.06856572676</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>47544.40515868461</v>
+        <v>47544.40515868462</v>
       </c>
       <c r="C132">
-        <v>58566.04333162865</v>
+        <v>58566.04333162866</v>
       </c>
       <c r="D132">
-        <v>75531.023413205</v>
+        <v>75531.02341320502</v>
       </c>
       <c r="E132">
-        <v>92710.06856572672</v>
+        <v>92710.06856572676</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,16 +2615,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>47544.40515868461</v>
+        <v>47544.40515868462</v>
       </c>
       <c r="C133">
-        <v>58566.04333162865</v>
+        <v>58566.04333162866</v>
       </c>
       <c r="D133">
-        <v>75531.023413205</v>
+        <v>75531.02341320502</v>
       </c>
       <c r="E133">
-        <v>92710.06856572672</v>
+        <v>92710.06856572676</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,10 +2632,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>50184.67669278659</v>
+        <v>50184.67669278658</v>
       </c>
       <c r="C134">
-        <v>61345.58812975146</v>
+        <v>61345.58812975145</v>
       </c>
       <c r="D134">
         <v>77289.16105667617</v>
@@ -2652,7 +2652,7 @@
         <v>46632.03207522621</v>
       </c>
       <c r="C135">
-        <v>57453.55377184663</v>
+        <v>57453.55377184669</v>
       </c>
       <c r="D135">
         <v>74479.6730920929</v>
@@ -2669,13 +2669,13 @@
         <v>45025.77003144216</v>
       </c>
       <c r="C136">
-        <v>56095.93033144049</v>
+        <v>56095.93033144051</v>
       </c>
       <c r="D136">
-        <v>73657.90225901394</v>
+        <v>73657.90225901395</v>
       </c>
       <c r="E136">
-        <v>91458.65876093613</v>
+        <v>91458.65876093612</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>45025.77003144216</v>
       </c>
       <c r="C137">
-        <v>56095.93033144049</v>
+        <v>56095.93033144051</v>
       </c>
       <c r="D137">
-        <v>73657.90225901394</v>
+        <v>73657.90225901395</v>
       </c>
       <c r="E137">
-        <v>91458.65876093613</v>
+        <v>91458.65876093612</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>45025.77003144216</v>
       </c>
       <c r="C138">
-        <v>56095.93033144049</v>
+        <v>56095.93033144051</v>
       </c>
       <c r="D138">
-        <v>73657.90225901394</v>
+        <v>73657.90225901395</v>
       </c>
       <c r="E138">
-        <v>91458.65876093613</v>
+        <v>91458.65876093612</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2720,13 +2720,13 @@
         <v>45524.38763392589</v>
       </c>
       <c r="C139">
-        <v>56560.17391204129</v>
+        <v>56560.17391204133</v>
       </c>
       <c r="D139">
-        <v>73929.72477362015</v>
+        <v>73929.72477362017</v>
       </c>
       <c r="E139">
-        <v>91416.81356667378</v>
+        <v>91416.81356667381</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>39331.7045532644</v>
       </c>
       <c r="C140">
-        <v>52061.157225942</v>
+        <v>52061.15722594201</v>
       </c>
       <c r="D140">
-        <v>71699.81464369611</v>
+        <v>71699.81464369614</v>
       </c>
       <c r="E140">
-        <v>90543.44119849423</v>
+        <v>90543.44119849421</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,13 +2754,13 @@
         <v>45524.38763392589</v>
       </c>
       <c r="C141">
-        <v>56560.17391204129</v>
+        <v>56560.17391204133</v>
       </c>
       <c r="D141">
-        <v>73929.72477362015</v>
+        <v>73929.72477362017</v>
       </c>
       <c r="E141">
-        <v>91416.81356667378</v>
+        <v>91416.81356667381</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2771,13 +2771,13 @@
         <v>45524.38763392589</v>
       </c>
       <c r="C142">
-        <v>56560.17391204129</v>
+        <v>56560.17391204133</v>
       </c>
       <c r="D142">
-        <v>73929.72477362015</v>
+        <v>73929.72477362017</v>
       </c>
       <c r="E142">
-        <v>91416.81356667378</v>
+        <v>91416.81356667381</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,16 +2785,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>44249.66071088118</v>
+        <v>44249.66071088117</v>
       </c>
       <c r="C143">
-        <v>56351.20612615206</v>
+        <v>56351.20612615208</v>
       </c>
       <c r="D143">
         <v>74087.47817819956</v>
       </c>
       <c r="E143">
-        <v>91357.36033957479</v>
+        <v>91357.36033957478</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2802,16 +2802,16 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>44249.66071088118</v>
+        <v>44249.66071088117</v>
       </c>
       <c r="C144">
-        <v>56351.20612615206</v>
+        <v>56351.20612615208</v>
       </c>
       <c r="D144">
         <v>74087.47817819956</v>
       </c>
       <c r="E144">
-        <v>91357.36033957479</v>
+        <v>91357.36033957478</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2819,16 +2819,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>44249.66071088118</v>
+        <v>44249.66071088117</v>
       </c>
       <c r="C145">
-        <v>56351.20612615206</v>
+        <v>56351.20612615208</v>
       </c>
       <c r="D145">
         <v>74087.47817819956</v>
       </c>
       <c r="E145">
-        <v>91357.36033957479</v>
+        <v>91357.36033957478</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>45525.32032909888</v>
+        <v>45525.32032909887</v>
       </c>
       <c r="C146">
-        <v>58418.19134841895</v>
+        <v>58418.19134841899</v>
       </c>
       <c r="D146">
-        <v>76394.10686824328</v>
+        <v>76394.10686824324</v>
       </c>
       <c r="E146">
-        <v>93349.94711965829</v>
+        <v>93349.94711965826</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,13 +2853,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>41138.48706370786</v>
+        <v>41138.48706370785</v>
       </c>
       <c r="C147">
         <v>52786.38353445574</v>
       </c>
       <c r="D147">
-        <v>71119.08700482974</v>
+        <v>71119.08700482981</v>
       </c>
       <c r="E147">
         <v>89570.94455326488</v>
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>40577.37823202704</v>
+        <v>40577.37823202705</v>
       </c>
       <c r="C148">
-        <v>51866.93691672084</v>
+        <v>51866.93691672082</v>
       </c>
       <c r="D148">
-        <v>69958.95355934842</v>
+        <v>69958.9535593484</v>
       </c>
       <c r="E148">
-        <v>88475.73015133575</v>
+        <v>88475.73015133578</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>40925.48684908525</v>
       </c>
       <c r="C149">
-        <v>50905.85387572659</v>
+        <v>50905.85387572658</v>
       </c>
       <c r="D149">
         <v>68002.66356878178</v>
       </c>
       <c r="E149">
-        <v>86430.53107204237</v>
+        <v>86430.53107204233</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>40925.48684908525</v>
       </c>
       <c r="C150">
-        <v>50905.85387572659</v>
+        <v>50905.85387572658</v>
       </c>
       <c r="D150">
         <v>68002.66356878178</v>
       </c>
       <c r="E150">
-        <v>86430.53107204237</v>
+        <v>86430.53107204233</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>40925.48684908525</v>
       </c>
       <c r="C151">
-        <v>50905.85387572659</v>
+        <v>50905.85387572658</v>
       </c>
       <c r="D151">
         <v>68002.66356878178</v>
       </c>
       <c r="E151">
-        <v>86430.53107204237</v>
+        <v>86430.53107204233</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>40925.48684908525</v>
       </c>
       <c r="C152">
-        <v>50905.85387572659</v>
+        <v>50905.85387572658</v>
       </c>
       <c r="D152">
         <v>68002.66356878178</v>
       </c>
       <c r="E152">
-        <v>86430.53107204237</v>
+        <v>86430.53107204233</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>36874.25315930572</v>
+        <v>36874.25315930573</v>
       </c>
       <c r="C153">
-        <v>48494.52751204371</v>
+        <v>48494.52751204372</v>
       </c>
       <c r="D153">
-        <v>68157.43395008369</v>
+        <v>68157.43395008362</v>
       </c>
       <c r="E153">
-        <v>87839.13704467591</v>
+        <v>87839.1370446759</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,16 +2972,16 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>36874.25315930572</v>
+        <v>36874.25315930573</v>
       </c>
       <c r="C154">
-        <v>48494.52751204371</v>
+        <v>48494.52751204372</v>
       </c>
       <c r="D154">
-        <v>68157.43395008369</v>
+        <v>68157.43395008362</v>
       </c>
       <c r="E154">
-        <v>87839.13704467591</v>
+        <v>87839.1370446759</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2992,13 +2992,13 @@
         <v>32253.25449154257</v>
       </c>
       <c r="C155">
-        <v>43299.60862815722</v>
+        <v>43299.6086281572</v>
       </c>
       <c r="D155">
-        <v>62390.25699981635</v>
+        <v>62390.25699981632</v>
       </c>
       <c r="E155">
-        <v>82521.29580404666</v>
+        <v>82521.29580404663</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>32253.25449154257</v>
       </c>
       <c r="C156">
-        <v>43299.60862815722</v>
+        <v>43299.6086281572</v>
       </c>
       <c r="D156">
-        <v>62390.25699981635</v>
+        <v>62390.25699981632</v>
       </c>
       <c r="E156">
-        <v>82521.29580404666</v>
+        <v>82521.29580404663</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,10 +3026,10 @@
         <v>32795.92107703682</v>
       </c>
       <c r="C157">
-        <v>44172.94517945885</v>
+        <v>44172.94517945883</v>
       </c>
       <c r="D157">
-        <v>63553.15457087802</v>
+        <v>63553.15457087801</v>
       </c>
       <c r="E157">
         <v>83727.10737398284</v>
@@ -3049,7 +3049,7 @@
         <v>67126.42146115194</v>
       </c>
       <c r="E158">
-        <v>86215.23903375737</v>
+        <v>86215.23903375739</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3060,13 +3060,13 @@
         <v>38284.00975597881</v>
       </c>
       <c r="C159">
-        <v>48303.1897821783</v>
+        <v>48303.18978217833</v>
       </c>
       <c r="D159">
         <v>65971.06744337521</v>
       </c>
       <c r="E159">
-        <v>85025.33270775252</v>
+        <v>85025.33270775247</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3074,16 +3074,16 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>33511.58544721013</v>
+        <v>33511.58544721014</v>
       </c>
       <c r="C160">
-        <v>44119.66123273472</v>
+        <v>44119.66123273471</v>
       </c>
       <c r="D160">
-        <v>62548.484919185</v>
+        <v>62548.48491918496</v>
       </c>
       <c r="E160">
-        <v>82422.40259154525</v>
+        <v>82422.40259154528</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3094,13 +3094,13 @@
         <v>34830.02485337146</v>
       </c>
       <c r="C161">
-        <v>46862.8576842214</v>
+        <v>46862.85768422139</v>
       </c>
       <c r="D161">
         <v>66838.04778933848</v>
       </c>
       <c r="E161">
-        <v>86776.07809274817</v>
+        <v>86776.07809274812</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3114,7 +3114,7 @@
         <v>45846.6649961009</v>
       </c>
       <c r="D162">
-        <v>64804.32799168143</v>
+        <v>64804.3279916814</v>
       </c>
       <c r="E162">
         <v>84796.68992102605</v>
@@ -3125,16 +3125,16 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>40513.52349754837</v>
+        <v>40513.52349754838</v>
       </c>
       <c r="C163">
-        <v>51278.62343982963</v>
+        <v>51278.62343982965</v>
       </c>
       <c r="D163">
-        <v>68877.91679478731</v>
+        <v>68877.91679478732</v>
       </c>
       <c r="E163">
-        <v>87313.08074334642</v>
+        <v>87313.08074334641</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>41062.08911949297</v>
+        <v>41062.08911949296</v>
       </c>
       <c r="C164">
-        <v>52167.45101485834</v>
+        <v>52167.45101485832</v>
       </c>
       <c r="D164">
-        <v>70012.09493911867</v>
+        <v>70012.09493911866</v>
       </c>
       <c r="E164">
-        <v>88419.84078690749</v>
+        <v>88419.84078690743</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>36034.66218028</v>
+        <v>36034.66218028001</v>
       </c>
       <c r="C165">
         <v>47371.35211732785</v>
       </c>
       <c r="D165">
-        <v>66092.34451091952</v>
+        <v>66092.34451091955</v>
       </c>
       <c r="E165">
-        <v>85226.05406109458</v>
+        <v>85226.05406109455</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>36034.66218028</v>
+        <v>36034.66218028001</v>
       </c>
       <c r="C166">
         <v>47371.35211732785</v>
       </c>
       <c r="D166">
-        <v>66092.34451091952</v>
+        <v>66092.34451091955</v>
       </c>
       <c r="E166">
-        <v>85226.05406109458</v>
+        <v>85226.05406109455</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3199,10 +3199,10 @@
         <v>49093.64107829933</v>
       </c>
       <c r="D167">
-        <v>69170.49976654358</v>
+        <v>69170.49976654357</v>
       </c>
       <c r="E167">
-        <v>88742.69013917737</v>
+        <v>88742.69013917736</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3213,13 +3213,13 @@
         <v>37235.80040178284</v>
       </c>
       <c r="C168">
-        <v>50076.73636035632</v>
+        <v>50076.73636035629</v>
       </c>
       <c r="D168">
-        <v>70377.08300581023</v>
+        <v>70377.08300581026</v>
       </c>
       <c r="E168">
-        <v>89847.76042965952</v>
+        <v>89847.76042965955</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3227,16 +3227,16 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>47192.43680288066</v>
+        <v>47192.43680288065</v>
       </c>
       <c r="C169">
-        <v>58666.77930342458</v>
+        <v>58666.7793034246</v>
       </c>
       <c r="D169">
-        <v>76125.22973636523</v>
+        <v>76125.22973636525</v>
       </c>
       <c r="E169">
-        <v>93349.57279981354</v>
+        <v>93349.57279981356</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>45154.43278148312</v>
+        <v>45154.43278148314</v>
       </c>
       <c r="C170">
         <v>56083.16737586274</v>
       </c>
       <c r="D170">
-        <v>73835.96840062826</v>
+        <v>73835.96840062831</v>
       </c>
       <c r="E170">
-        <v>91877.69376110221</v>
+        <v>91877.69376110217</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,16 +3261,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>47192.43680288066</v>
+        <v>47192.43680288065</v>
       </c>
       <c r="C171">
-        <v>58666.77930342458</v>
+        <v>58666.7793034246</v>
       </c>
       <c r="D171">
-        <v>76125.22973636523</v>
+        <v>76125.22973636525</v>
       </c>
       <c r="E171">
-        <v>93349.57279981354</v>
+        <v>93349.57279981356</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>45154.43278148312</v>
+        <v>45154.43278148314</v>
       </c>
       <c r="C172">
         <v>56083.16737586274</v>
       </c>
       <c r="D172">
-        <v>73835.96840062826</v>
+        <v>73835.96840062831</v>
       </c>
       <c r="E172">
-        <v>91877.69376110221</v>
+        <v>91877.69376110217</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>45154.43278148312</v>
+        <v>45154.43278148314</v>
       </c>
       <c r="C173">
         <v>56083.16737586274</v>
       </c>
       <c r="D173">
-        <v>73835.96840062826</v>
+        <v>73835.96840062831</v>
       </c>
       <c r="E173">
-        <v>91877.69376110221</v>
+        <v>91877.69376110217</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,16 +3312,16 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>46769.07800185182</v>
+        <v>46769.07800185181</v>
       </c>
       <c r="C174">
-        <v>57289.54166253053</v>
+        <v>57289.54166253054</v>
       </c>
       <c r="D174">
         <v>74191.55864093376</v>
       </c>
       <c r="E174">
-        <v>91789.10308462731</v>
+        <v>91789.10308462728</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3329,16 +3329,16 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>43491.54619499903</v>
+        <v>43491.54619499901</v>
       </c>
       <c r="C175">
-        <v>56362.29628554979</v>
+        <v>56362.29628554978</v>
       </c>
       <c r="D175">
-        <v>75580.49554588292</v>
+        <v>75580.49554588296</v>
       </c>
       <c r="E175">
-        <v>93671.85108519878</v>
+        <v>93671.85108519881</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3346,16 +3346,16 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>42858.26251084917</v>
+        <v>42858.26251084916</v>
       </c>
       <c r="C176">
-        <v>55360.80639909834</v>
+        <v>55360.80639909837</v>
       </c>
       <c r="D176">
-        <v>74432.84481212057</v>
+        <v>74432.84481212054</v>
       </c>
       <c r="E176">
-        <v>92726.13580538615</v>
+        <v>92726.13580538618</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3363,16 +3363,16 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>42858.26251084917</v>
+        <v>42858.26251084916</v>
       </c>
       <c r="C177">
-        <v>55360.80639909834</v>
+        <v>55360.80639909837</v>
       </c>
       <c r="D177">
-        <v>74432.84481212057</v>
+        <v>74432.84481212054</v>
       </c>
       <c r="E177">
-        <v>92726.13580538615</v>
+        <v>92726.13580538618</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>43435.65377119958</v>
+        <v>43435.65377119957</v>
       </c>
       <c r="C178">
         <v>54989.97634020002</v>
       </c>
       <c r="D178">
-        <v>73282.5946257055</v>
+        <v>73282.59462570553</v>
       </c>
       <c r="E178">
-        <v>91513.92353313175</v>
+        <v>91513.92353313169</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>43422.77954244583</v>
+        <v>43422.77954244584</v>
       </c>
       <c r="C179">
-        <v>54910.21849373404</v>
+        <v>54910.21849373402</v>
       </c>
       <c r="D179">
-        <v>73227.63181224572</v>
+        <v>73227.63181224576</v>
       </c>
       <c r="E179">
-        <v>91491.44145993811</v>
+        <v>91491.44145993808</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>44629.52076253569</v>
+        <v>44629.52076253567</v>
       </c>
       <c r="C180">
         <v>56849.50019218344</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>44629.52076253569</v>
+        <v>44629.52076253567</v>
       </c>
       <c r="C181">
         <v>56849.50019218344</v>
@@ -3451,13 +3451,13 @@
         <v>35256.47483240881</v>
       </c>
       <c r="C182">
-        <v>47349.78495408459</v>
+        <v>47349.78495408462</v>
       </c>
       <c r="D182">
-        <v>67811.44972957781</v>
+        <v>67811.4497295778</v>
       </c>
       <c r="E182">
-        <v>88097.6666415458</v>
+        <v>88097.66664154585</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>30445.11550667943</v>
+        <v>30445.11550667942</v>
       </c>
       <c r="C183">
-        <v>42946.5386082573</v>
+        <v>42946.53860825732</v>
       </c>
       <c r="D183">
         <v>64440.49151976834</v>
       </c>
       <c r="E183">
-        <v>85726.02976151975</v>
+        <v>85726.02976151978</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>38236.02199878141</v>
+        <v>38236.02199878142</v>
       </c>
       <c r="C184">
-        <v>51211.85868366442</v>
+        <v>51211.85868366441</v>
       </c>
       <c r="D184">
-        <v>71383.29688697276</v>
+        <v>71383.29688697278</v>
       </c>
       <c r="E184">
-        <v>90791.55896103343</v>
+        <v>90791.55896103341</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,16 +3499,16 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>38236.02199878141</v>
+        <v>38236.02199878142</v>
       </c>
       <c r="C185">
-        <v>51211.85868366442</v>
+        <v>51211.85868366441</v>
       </c>
       <c r="D185">
-        <v>71383.29688697276</v>
+        <v>71383.29688697278</v>
       </c>
       <c r="E185">
-        <v>90791.55896103343</v>
+        <v>90791.55896103341</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>36279.76118654417</v>
+        <v>36279.76118654416</v>
       </c>
       <c r="C186">
-        <v>48182.64676466537</v>
+        <v>48182.64676466536</v>
       </c>
       <c r="D186">
         <v>68655.73988453338</v>
@@ -3533,16 +3533,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>35680.09343749511</v>
+        <v>35680.09343749512</v>
       </c>
       <c r="C187">
-        <v>47194.45477257344</v>
+        <v>47194.45477257342</v>
       </c>
       <c r="D187">
-        <v>67438.74825346205</v>
+        <v>67438.74825346204</v>
       </c>
       <c r="E187">
-        <v>87656.69824636276</v>
+        <v>87656.69824636278</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3553,13 +3553,13 @@
         <v>34321.42859664329</v>
       </c>
       <c r="C188">
-        <v>46838.73302842636</v>
+        <v>46838.73302842638</v>
       </c>
       <c r="D188">
         <v>67869.7804120737</v>
       </c>
       <c r="E188">
-        <v>88450.42591986632</v>
+        <v>88450.42591986636</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>34321.42859664329</v>
       </c>
       <c r="C189">
-        <v>46838.73302842636</v>
+        <v>46838.73302842638</v>
       </c>
       <c r="D189">
         <v>67869.7804120737</v>
       </c>
       <c r="E189">
-        <v>88450.42591986632</v>
+        <v>88450.42591986636</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>34321.42859664329</v>
       </c>
       <c r="C190">
-        <v>46838.73302842636</v>
+        <v>46838.73302842638</v>
       </c>
       <c r="D190">
         <v>67869.7804120737</v>
       </c>
       <c r="E190">
-        <v>88450.42591986632</v>
+        <v>88450.42591986636</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,16 +3601,16 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>38366.16854972205</v>
+        <v>38366.16854972204</v>
       </c>
       <c r="C191">
-        <v>51611.88820669962</v>
+        <v>51611.8882066996</v>
       </c>
       <c r="D191">
-        <v>71842.62107448233</v>
+        <v>71842.62107448235</v>
       </c>
       <c r="E191">
-        <v>91104.56008492269</v>
+        <v>91104.56008492268</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>35680.09343749511</v>
+        <v>35680.09343749512</v>
       </c>
       <c r="C192">
-        <v>47194.45477257344</v>
+        <v>47194.45477257342</v>
       </c>
       <c r="D192">
-        <v>67438.74825346205</v>
+        <v>67438.74825346204</v>
       </c>
       <c r="E192">
-        <v>87656.69824636276</v>
+        <v>87656.69824636278</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,13 +3635,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>46355.40006729648</v>
+        <v>46355.40006729647</v>
       </c>
       <c r="C193">
         <v>57757.47973355966</v>
       </c>
       <c r="D193">
-        <v>75659.59506041624</v>
+        <v>75659.59506041631</v>
       </c>
       <c r="E193">
         <v>93020.86472484807</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>46355.40006729648</v>
+        <v>46355.40006729647</v>
       </c>
       <c r="C194">
         <v>57757.47973355966</v>
       </c>
       <c r="D194">
-        <v>75659.59506041624</v>
+        <v>75659.59506041631</v>
       </c>
       <c r="E194">
         <v>93020.86472484807</v>
@@ -3669,16 +3669,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>47192.43680288066</v>
+        <v>47192.43680288065</v>
       </c>
       <c r="C195">
-        <v>58666.77930342458</v>
+        <v>58666.7793034246</v>
       </c>
       <c r="D195">
-        <v>76125.22973636523</v>
+        <v>76125.22973636525</v>
       </c>
       <c r="E195">
-        <v>93349.57279981354</v>
+        <v>93349.57279981356</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>40570.68947205417</v>
       </c>
       <c r="C196">
-        <v>52420.2837659622</v>
+        <v>52420.28376596224</v>
       </c>
       <c r="D196">
-        <v>71745.88717439823</v>
+        <v>71745.88717439827</v>
       </c>
       <c r="E196">
-        <v>90650.58821023132</v>
+        <v>90650.58821023123</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,16 +3703,16 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>41608.91406231378</v>
+        <v>41608.91406231379</v>
       </c>
       <c r="C197">
-        <v>53379.12875450982</v>
+        <v>53379.12875450984</v>
       </c>
       <c r="D197">
         <v>72649.29675597316</v>
       </c>
       <c r="E197">
-        <v>91215.05562397146</v>
+        <v>91215.05562397151</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3720,16 +3720,16 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>41608.91406231378</v>
+        <v>41608.91406231379</v>
       </c>
       <c r="C198">
-        <v>53379.12875450982</v>
+        <v>53379.12875450984</v>
       </c>
       <c r="D198">
         <v>72649.29675597316</v>
       </c>
       <c r="E198">
-        <v>91215.05562397146</v>
+        <v>91215.05562397151</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,16 +3737,16 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>42255.35614196092</v>
+        <v>42255.35614196093</v>
       </c>
       <c r="C199">
-        <v>54434.11428333473</v>
+        <v>54434.11428333471</v>
       </c>
       <c r="D199">
-        <v>73877.3322556108</v>
+        <v>73877.33225561079</v>
       </c>
       <c r="E199">
-        <v>92257.32623522234</v>
+        <v>92257.32623522237</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3754,16 +3754,16 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>42255.35614196092</v>
+        <v>42255.35614196093</v>
       </c>
       <c r="C200">
-        <v>54434.11428333473</v>
+        <v>54434.11428333471</v>
       </c>
       <c r="D200">
-        <v>73877.3322556108</v>
+        <v>73877.33225561079</v>
       </c>
       <c r="E200">
-        <v>92257.32623522234</v>
+        <v>92257.32623522237</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3774,10 +3774,10 @@
         <v>44600.35836602272</v>
       </c>
       <c r="C201">
-        <v>57250.6622710084</v>
+        <v>57250.66227100841</v>
       </c>
       <c r="D201">
-        <v>76771.48569527552</v>
+        <v>76771.48569527555</v>
       </c>
       <c r="E201">
         <v>94237.39590994931</v>
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>40769.53159139022</v>
+        <v>40769.5315913902</v>
       </c>
       <c r="C202">
         <v>54342.7842579174</v>
       </c>
       <c r="D202">
-        <v>75141.19086790792</v>
+        <v>75141.19086790795</v>
       </c>
       <c r="E202">
-        <v>93494.50753259989</v>
+        <v>93494.50753259992</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3805,7 +3805,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>41206.6951961048</v>
+        <v>41206.69519610482</v>
       </c>
       <c r="C203">
         <v>53442.52448087377</v>
@@ -3814,7 +3814,7 @@
         <v>72923.17566356769</v>
       </c>
       <c r="E203">
-        <v>91680.32611638859</v>
+        <v>91680.32611638856</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>39062.59850210935</v>
+        <v>39062.59850210934</v>
       </c>
       <c r="C204">
-        <v>51644.22700174517</v>
+        <v>51644.22700174518</v>
       </c>
       <c r="D204">
         <v>71854.61580603596</v>
       </c>
       <c r="E204">
-        <v>91027.0999868082</v>
+        <v>91027.09998680819</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,16 +3839,16 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>39714.66006617387</v>
+        <v>39714.66006617386</v>
       </c>
       <c r="C205">
-        <v>52681.15657951811</v>
+        <v>52681.15657951812</v>
       </c>
       <c r="D205">
-        <v>73043.68242199245</v>
+        <v>73043.68242199246</v>
       </c>
       <c r="E205">
-        <v>92044.56089560517</v>
+        <v>92044.56089560516</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3859,10 +3859,10 @@
         <v>32116.40391940933</v>
       </c>
       <c r="C206">
-        <v>44315.10006080664</v>
+        <v>44315.10006080663</v>
       </c>
       <c r="D206">
-        <v>61784.98128561425</v>
+        <v>61784.98128561423</v>
       </c>
       <c r="E206">
         <v>78842.9762073039</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>27504.94145852568</v>
+        <v>27504.94145852567</v>
       </c>
       <c r="C207">
-        <v>38972.42619392419</v>
+        <v>38972.42619392418</v>
       </c>
       <c r="D207">
-        <v>56403.52540864253</v>
+        <v>56403.52540864255</v>
       </c>
       <c r="E207">
-        <v>73605.92738950792</v>
+        <v>73605.92738950789</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>27504.94145852568</v>
+        <v>27504.94145852567</v>
       </c>
       <c r="C208">
-        <v>38972.42619392419</v>
+        <v>38972.42619392418</v>
       </c>
       <c r="D208">
-        <v>56403.52540864253</v>
+        <v>56403.52540864255</v>
       </c>
       <c r="E208">
-        <v>73605.92738950792</v>
+        <v>73605.92738950789</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,10 +3910,10 @@
         <v>32116.40391940933</v>
       </c>
       <c r="C209">
-        <v>44315.10006080664</v>
+        <v>44315.10006080663</v>
       </c>
       <c r="D209">
-        <v>61784.98128561425</v>
+        <v>61784.98128561423</v>
       </c>
       <c r="E209">
         <v>78842.9762073039</v>
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>27504.94145852568</v>
+        <v>27504.94145852567</v>
       </c>
       <c r="C210">
-        <v>38972.42619392419</v>
+        <v>38972.42619392418</v>
       </c>
       <c r="D210">
-        <v>56403.52540864253</v>
+        <v>56403.52540864255</v>
       </c>
       <c r="E210">
-        <v>73605.92738950792</v>
+        <v>73605.92738950789</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3944,13 +3944,13 @@
         <v>27901.77322314814</v>
       </c>
       <c r="C211">
-        <v>39778.18371102634</v>
+        <v>39778.18371102632</v>
       </c>
       <c r="D211">
         <v>57796.16253538341</v>
       </c>
       <c r="E211">
-        <v>75697.53094658151</v>
+        <v>75697.53094658154</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,10 +3958,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>29949.90122151022</v>
+        <v>29949.90122151021</v>
       </c>
       <c r="C212">
-        <v>43094.18963464881</v>
+        <v>43094.18963464882</v>
       </c>
       <c r="D212">
         <v>62206.38773517059</v>
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>27504.94145852568</v>
+        <v>27504.94145852567</v>
       </c>
       <c r="C213">
-        <v>38972.42619392419</v>
+        <v>38972.42619392418</v>
       </c>
       <c r="D213">
-        <v>56403.52540864253</v>
+        <v>56403.52540864255</v>
       </c>
       <c r="E213">
-        <v>73605.92738950792</v>
+        <v>73605.92738950789</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,16 +3992,16 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>24281.68574182364</v>
+        <v>24281.68574182363</v>
       </c>
       <c r="C214">
-        <v>34929.61538376124</v>
+        <v>34929.61538376121</v>
       </c>
       <c r="D214">
-        <v>52209.22043124002</v>
+        <v>52209.22043124003</v>
       </c>
       <c r="E214">
-        <v>69472.55128212851</v>
+        <v>69472.55128212848</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>24281.68574182364</v>
+        <v>24281.68574182363</v>
       </c>
       <c r="C215">
-        <v>34929.61538376124</v>
+        <v>34929.61538376121</v>
       </c>
       <c r="D215">
-        <v>52209.22043124002</v>
+        <v>52209.22043124003</v>
       </c>
       <c r="E215">
-        <v>69472.55128212851</v>
+        <v>69472.55128212848</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>23990.46770173372</v>
+        <v>23990.46770173371</v>
       </c>
       <c r="C216">
-        <v>34181.91870406685</v>
+        <v>34181.91870406686</v>
       </c>
       <c r="D216">
-        <v>50728.2913829469</v>
+        <v>50728.29138294689</v>
       </c>
       <c r="E216">
-        <v>67665.11617746842</v>
+        <v>67665.11617746839</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4049,10 +4049,10 @@
         <v>36230.68727134657</v>
       </c>
       <c r="D217">
-        <v>53548.83240526335</v>
+        <v>53548.8324052634</v>
       </c>
       <c r="E217">
-        <v>70984.55033763508</v>
+        <v>70984.55033763516</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,13 +4060,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>26022.08163914011</v>
+        <v>26022.08163914012</v>
       </c>
       <c r="C218">
         <v>37069.60653842064</v>
       </c>
       <c r="D218">
-        <v>54861.78854463447</v>
+        <v>54861.78854463451</v>
       </c>
       <c r="E218">
         <v>72647.75415238425</v>
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>28864.90780009539</v>
+        <v>28864.90780009538</v>
       </c>
       <c r="C219">
-        <v>41963.66543529928</v>
+        <v>41963.66543529931</v>
       </c>
       <c r="D219">
-        <v>61464.95307134655</v>
+        <v>61464.95307134653</v>
       </c>
       <c r="E219">
-        <v>79629.69424819255</v>
+        <v>79629.69424819254</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,13 +4094,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>30078.65112026349</v>
+        <v>30078.6511202635</v>
       </c>
       <c r="C220">
         <v>44187.67602676515</v>
       </c>
       <c r="D220">
-        <v>63966.0799256848</v>
+        <v>63966.07992568477</v>
       </c>
       <c r="E220">
         <v>82079.15888679233</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>30860.86399937989</v>
+        <v>30860.86399937988</v>
       </c>
       <c r="C221">
-        <v>44754.18791670571</v>
+        <v>44754.18791670573</v>
       </c>
       <c r="D221">
         <v>64665.85056619861</v>
       </c>
       <c r="E221">
-        <v>82731.61310426958</v>
+        <v>82731.61310426955</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>28864.90780009539</v>
+        <v>28864.90780009538</v>
       </c>
       <c r="C222">
-        <v>41963.66543529928</v>
+        <v>41963.66543529931</v>
       </c>
       <c r="D222">
-        <v>61464.95307134655</v>
+        <v>61464.95307134653</v>
       </c>
       <c r="E222">
-        <v>79629.69424819255</v>
+        <v>79629.69424819254</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>31504.32539406453</v>
       </c>
       <c r="C223">
-        <v>45906.72180464864</v>
+        <v>45906.72180464865</v>
       </c>
       <c r="D223">
-        <v>66057.46917380372</v>
+        <v>66057.46917380369</v>
       </c>
       <c r="E223">
-        <v>84130.3693131414</v>
+        <v>84130.36931314137</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>24122.37610318565</v>
+        <v>24122.37610318566</v>
       </c>
       <c r="C224">
         <v>34982.71191649469</v>
       </c>
       <c r="D224">
-        <v>52342.73546775218</v>
+        <v>52342.73546775219</v>
       </c>
       <c r="E224">
-        <v>69949.42768053344</v>
+        <v>69949.42768053348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>23250.05737676951</v>
+        <v>23250.0573767695</v>
       </c>
       <c r="C225">
-        <v>33532.04157523914</v>
+        <v>33532.04157523913</v>
       </c>
       <c r="D225">
-        <v>50013.6431556375</v>
+        <v>50013.64315563752</v>
       </c>
       <c r="E225">
-        <v>66666.78771908648</v>
+        <v>66666.78771908647</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>51172.74126602619</v>
       </c>
       <c r="E226">
-        <v>68316.98963131</v>
+        <v>68316.98963130999</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>24543.81436285751</v>
+        <v>24543.81436285752</v>
       </c>
       <c r="C227">
         <v>34424.00368699309</v>
       </c>
       <c r="D227">
-        <v>50304.11994539757</v>
+        <v>50304.11994539756</v>
       </c>
       <c r="E227">
-        <v>66710.04042001661</v>
+        <v>66710.04042001662</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>19937.38789582656</v>
+        <v>19937.38789582655</v>
       </c>
       <c r="C228">
-        <v>31230.11430464353</v>
+        <v>31230.11430464352</v>
       </c>
       <c r="D228">
-        <v>50306.87355288619</v>
+        <v>50306.87355288618</v>
       </c>
       <c r="E228">
-        <v>69635.34157661884</v>
+        <v>69635.34157661881</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,13 +4247,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>30078.65112026349</v>
+        <v>30078.6511202635</v>
       </c>
       <c r="C229">
         <v>44187.67602676515</v>
       </c>
       <c r="D229">
-        <v>63966.0799256848</v>
+        <v>63966.07992568477</v>
       </c>
       <c r="E229">
         <v>82079.15888679233</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>30236.93954809345</v>
+        <v>30236.93954809343</v>
       </c>
       <c r="C230">
-        <v>43624.96836720611</v>
+        <v>43624.96836720613</v>
       </c>
       <c r="D230">
-        <v>63268.81419260237</v>
+        <v>63268.81419260234</v>
       </c>
       <c r="E230">
-        <v>81277.01230638118</v>
+        <v>81277.01230638116</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,13 +4281,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>30536.04875013895</v>
+        <v>30536.04875013897</v>
       </c>
       <c r="C231">
-        <v>44169.68231415704</v>
+        <v>44169.68231415703</v>
       </c>
       <c r="D231">
-        <v>63573.06464480938</v>
+        <v>63573.06464480935</v>
       </c>
       <c r="E231">
         <v>81784.33263290109</v>
@@ -4304,10 +4304,10 @@
         <v>39061.9628513533</v>
       </c>
       <c r="D232">
-        <v>58274.24406022641</v>
+        <v>58274.24406022642</v>
       </c>
       <c r="E232">
-        <v>76902.28340693928</v>
+        <v>76902.2834069393</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4315,16 +4315,16 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>27405.33543811672</v>
+        <v>27405.33543811673</v>
       </c>
       <c r="C233">
-        <v>40080.12987323098</v>
+        <v>40080.12987323097</v>
       </c>
       <c r="D233">
         <v>59687.54652270483</v>
       </c>
       <c r="E233">
-        <v>78499.88895932514</v>
+        <v>78499.88895932502</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>30291.93946048737</v>
+        <v>30291.93946048736</v>
       </c>
       <c r="C234">
-        <v>43816.14042342982</v>
+        <v>43816.14042342983</v>
       </c>
       <c r="D234">
-        <v>63416.24561349156</v>
+        <v>63416.24561349152</v>
       </c>
       <c r="E234">
-        <v>81486.7526420177</v>
+        <v>81486.75264201776</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,16 +4349,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>30291.93946048737</v>
+        <v>30291.93946048736</v>
       </c>
       <c r="C235">
-        <v>43816.14042342982</v>
+        <v>43816.14042342983</v>
       </c>
       <c r="D235">
-        <v>63416.24561349156</v>
+        <v>63416.24561349152</v>
       </c>
       <c r="E235">
-        <v>81486.7526420177</v>
+        <v>81486.75264201776</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,16 +4366,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>30291.93946048737</v>
+        <v>30291.93946048736</v>
       </c>
       <c r="C236">
-        <v>43816.14042342982</v>
+        <v>43816.14042342983</v>
       </c>
       <c r="D236">
-        <v>63416.24561349156</v>
+        <v>63416.24561349152</v>
       </c>
       <c r="E236">
-        <v>81486.7526420177</v>
+        <v>81486.75264201776</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4389,10 +4389,10 @@
         <v>35082.98936569186</v>
       </c>
       <c r="D237">
-        <v>51441.85800454353</v>
+        <v>51441.85800454355</v>
       </c>
       <c r="E237">
-        <v>68329.11885177162</v>
+        <v>68329.11885177161</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>24543.81436285751</v>
+        <v>24543.81436285752</v>
       </c>
       <c r="C238">
         <v>34424.00368699309</v>
       </c>
       <c r="D238">
-        <v>50304.11994539757</v>
+        <v>50304.11994539756</v>
       </c>
       <c r="E238">
-        <v>66710.04042001661</v>
+        <v>66710.04042001662</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,13 +4417,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>25312.15083328253</v>
+        <v>25312.15083328254</v>
       </c>
       <c r="C239">
-        <v>35755.63006761249</v>
+        <v>35755.6300676125</v>
       </c>
       <c r="D239">
-        <v>52597.1717902586</v>
+        <v>52597.17179025862</v>
       </c>
       <c r="E239">
         <v>69937.18182121187</v>
@@ -4437,13 +4437,13 @@
         <v>22176.18864667881</v>
       </c>
       <c r="C240">
-        <v>32655.26216637476</v>
+        <v>32655.26216637475</v>
       </c>
       <c r="D240">
-        <v>49816.59447258886</v>
+        <v>49816.59447258887</v>
       </c>
       <c r="E240">
-        <v>67204.2348860277</v>
+        <v>67204.23488602771</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,10 +4454,10 @@
         <v>22064.98839537714</v>
       </c>
       <c r="C241">
-        <v>32453.89963557897</v>
+        <v>32453.89963557896</v>
       </c>
       <c r="D241">
-        <v>49455.78448958758</v>
+        <v>49455.78448958761</v>
       </c>
       <c r="E241">
         <v>66705.69364342453</v>
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>30860.86399937989</v>
+        <v>30860.86399937988</v>
       </c>
       <c r="C242">
-        <v>44754.18791670571</v>
+        <v>44754.18791670573</v>
       </c>
       <c r="D242">
         <v>64665.85056619861</v>
       </c>
       <c r="E242">
-        <v>82731.61310426958</v>
+        <v>82731.61310426955</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,16 +4485,16 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>31148.85696344395</v>
+        <v>31148.85696344394</v>
       </c>
       <c r="C243">
-        <v>45692.12752622684</v>
+        <v>45692.12752622685</v>
       </c>
       <c r="D243">
-        <v>66143.08751429338</v>
+        <v>66143.08751429341</v>
       </c>
       <c r="E243">
-        <v>84217.73676900115</v>
+        <v>84217.7367690012</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>30860.86399937989</v>
+        <v>30860.86399937988</v>
       </c>
       <c r="C244">
-        <v>44754.18791670571</v>
+        <v>44754.18791670573</v>
       </c>
       <c r="D244">
         <v>64665.85056619861</v>
       </c>
       <c r="E244">
-        <v>82731.61310426958</v>
+        <v>82731.61310426955</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4522,13 +4522,13 @@
         <v>31855.7456500125</v>
       </c>
       <c r="C245">
-        <v>46924.01416702909</v>
+        <v>46924.0141670291</v>
       </c>
       <c r="D245">
-        <v>67563.42209524792</v>
+        <v>67563.42209524789</v>
       </c>
       <c r="E245">
-        <v>85562.62872377911</v>
+        <v>85562.6287237791</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>34675.26480492377</v>
+        <v>34675.26480492376</v>
       </c>
       <c r="C246">
-        <v>50014.23009606505</v>
+        <v>50014.23009606508</v>
       </c>
       <c r="D246">
         <v>70129.61011695916</v>
       </c>
       <c r="E246">
-        <v>87607.69797724053</v>
+        <v>87607.69797724047</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>34675.26480492377</v>
+        <v>34675.26480492376</v>
       </c>
       <c r="C247">
-        <v>50014.23009606505</v>
+        <v>50014.23009606508</v>
       </c>
       <c r="D247">
         <v>70129.61011695916</v>
       </c>
       <c r="E247">
-        <v>87607.69797724053</v>
+        <v>87607.69797724047</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,16 +4570,16 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>28909.47537904236</v>
+        <v>28909.47537904235</v>
       </c>
       <c r="C248">
         <v>41601.31335081223</v>
       </c>
       <c r="D248">
-        <v>60377.29892853031</v>
+        <v>60377.29892853029</v>
       </c>
       <c r="E248">
-        <v>78762.28012374998</v>
+        <v>78762.28012374992</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>19937.38789582656</v>
+        <v>19937.38789582655</v>
       </c>
       <c r="C249">
-        <v>31230.11430464353</v>
+        <v>31230.11430464352</v>
       </c>
       <c r="D249">
-        <v>50306.87355288619</v>
+        <v>50306.87355288618</v>
       </c>
       <c r="E249">
-        <v>69635.34157661884</v>
+        <v>69635.34157661881</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,10 +4604,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>41642.91870912493</v>
+        <v>41642.91870912495</v>
       </c>
       <c r="C250">
-        <v>55447.18475072865</v>
+        <v>55447.18475072868</v>
       </c>
       <c r="D250">
         <v>73864.51823403819</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>43173.72936452674</v>
+        <v>43173.72936452676</v>
       </c>
       <c r="C251">
-        <v>57579.50336858807</v>
+        <v>57579.50336858809</v>
       </c>
       <c r="D251">
-        <v>75794.69222424438</v>
+        <v>75794.69222424444</v>
       </c>
       <c r="E251">
         <v>91945.37730607946</v>
@@ -4644,10 +4644,10 @@
         <v>52273.66545853452</v>
       </c>
       <c r="D252">
-        <v>70710.83557248772</v>
+        <v>70710.83557248767</v>
       </c>
       <c r="E252">
-        <v>87761.74143982632</v>
+        <v>87761.74143982634</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>38434.06234139698</v>
+        <v>38434.06234139699</v>
       </c>
       <c r="C253">
-        <v>52908.70542776807</v>
+        <v>52908.70542776806</v>
       </c>
       <c r="D253">
-        <v>72699.09894534797</v>
+        <v>72699.098945348</v>
       </c>
       <c r="E253">
         <v>90058.06976474164</v>
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>43052.52955035494</v>
+        <v>43052.52955035495</v>
       </c>
       <c r="C254">
         <v>57130.50125038984</v>
       </c>
       <c r="D254">
-        <v>76042.00212539252</v>
+        <v>76042.00212539254</v>
       </c>
       <c r="E254">
-        <v>92753.03956534236</v>
+        <v>92753.03956534238</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>38434.06234139698</v>
+        <v>38434.06234139699</v>
       </c>
       <c r="C255">
-        <v>52908.70542776807</v>
+        <v>52908.70542776806</v>
       </c>
       <c r="D255">
-        <v>72699.09894534797</v>
+        <v>72699.098945348</v>
       </c>
       <c r="E255">
         <v>90058.06976474164</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>39226.03471720023</v>
+        <v>39226.03471720025</v>
       </c>
       <c r="C256">
-        <v>51984.74240996852</v>
+        <v>51984.74240996854</v>
       </c>
       <c r="D256">
-        <v>70053.36571869168</v>
+        <v>70053.36571869165</v>
       </c>
       <c r="E256">
-        <v>86978.03420786365</v>
+        <v>86978.03420786363</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4729,10 +4729,10 @@
         <v>43595.80068386657</v>
       </c>
       <c r="D257">
-        <v>63112.9407249303</v>
+        <v>63112.94072493035</v>
       </c>
       <c r="E257">
-        <v>81416.12456361855</v>
+        <v>81416.12456361852</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,16 +4740,16 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>27162.5104421151</v>
+        <v>27162.51044211512</v>
       </c>
       <c r="C258">
-        <v>39932.61854712003</v>
+        <v>39932.61854712002</v>
       </c>
       <c r="D258">
-        <v>60960.44061947212</v>
+        <v>60960.44061947213</v>
       </c>
       <c r="E258">
-        <v>80381.56572327258</v>
+        <v>80381.56572327261</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,16 +4757,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>27162.5104421151</v>
+        <v>27162.51044211512</v>
       </c>
       <c r="C259">
-        <v>39932.61854712003</v>
+        <v>39932.61854712002</v>
       </c>
       <c r="D259">
-        <v>60960.44061947212</v>
+        <v>60960.44061947213</v>
       </c>
       <c r="E259">
-        <v>80381.56572327258</v>
+        <v>80381.56572327261</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4783,7 +4783,7 @@
         <v>44915.31363386744</v>
       </c>
       <c r="E260">
-        <v>70579.73159413463</v>
+        <v>70579.73159413462</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,7 +4791,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>6338.097115635181</v>
+        <v>6338.09711563518</v>
       </c>
       <c r="C261">
         <v>12305.79087220665</v>
@@ -4800,7 +4800,7 @@
         <v>33853.03530050463</v>
       </c>
       <c r="E261">
-        <v>58744.18492054504</v>
+        <v>58744.18492054499</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4814,10 +4814,10 @@
         <v>18721.36755870653</v>
       </c>
       <c r="D262">
-        <v>41864.90113609449</v>
+        <v>41864.90113609451</v>
       </c>
       <c r="E262">
-        <v>67106.97534643281</v>
+        <v>67106.97534643284</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4834,7 +4834,7 @@
         <v>43217.81163027934</v>
       </c>
       <c r="E263">
-        <v>68796.53317715014</v>
+        <v>68796.53317715017</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,13 +4842,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>9993.715158322557</v>
+        <v>9993.715158322559</v>
       </c>
       <c r="C264">
         <v>17505.91433741971</v>
       </c>
       <c r="D264">
-        <v>39913.99205216733</v>
+        <v>39913.99205216734</v>
       </c>
       <c r="E264">
         <v>64811.44298702797</v>
@@ -4859,13 +4859,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>9993.715158322557</v>
+        <v>9993.715158322559</v>
       </c>
       <c r="C265">
         <v>17505.91433741971</v>
       </c>
       <c r="D265">
-        <v>39913.99205216733</v>
+        <v>39913.99205216734</v>
       </c>
       <c r="E265">
         <v>64811.44298702797</v>
@@ -4882,10 +4882,10 @@
         <v>24102.63523068389</v>
       </c>
       <c r="D266">
-        <v>49421.1319085207</v>
+        <v>49421.13190852069</v>
       </c>
       <c r="E266">
-        <v>75318.44726951553</v>
+        <v>75318.44726951556</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,13 +4893,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>9993.715158322557</v>
+        <v>9993.715158322559</v>
       </c>
       <c r="C267">
         <v>17505.91433741971</v>
       </c>
       <c r="D267">
-        <v>39913.99205216733</v>
+        <v>39913.99205216734</v>
       </c>
       <c r="E267">
         <v>64811.44298702797</v>
@@ -4910,7 +4910,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>6338.097115635181</v>
+        <v>6338.09711563518</v>
       </c>
       <c r="C268">
         <v>12305.79087220665</v>
@@ -4919,7 +4919,7 @@
         <v>33853.03530050463</v>
       </c>
       <c r="E268">
-        <v>58744.18492054504</v>
+        <v>58744.18492054499</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,7 +4927,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>6338.097115635181</v>
+        <v>6338.09711563518</v>
       </c>
       <c r="C269">
         <v>12305.79087220665</v>
@@ -4936,7 +4936,7 @@
         <v>33853.03530050463</v>
       </c>
       <c r="E269">
-        <v>58744.18492054504</v>
+        <v>58744.18492054499</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>7628.760300740017</v>
+        <v>7628.76030074002</v>
       </c>
       <c r="C270">
         <v>16008.07274470126</v>
       </c>
       <c r="D270">
-        <v>39089.7234554754</v>
+        <v>39089.72345547541</v>
       </c>
       <c r="E270">
-        <v>63769.43666464099</v>
+        <v>63769.43666464098</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>5100.436306663317</v>
+        <v>5100.43630666331</v>
       </c>
       <c r="C271">
         <v>11585.22451200557</v>
       </c>
       <c r="D271">
-        <v>31690.08328314684</v>
+        <v>31690.08328314686</v>
       </c>
       <c r="E271">
         <v>54140.53891515992</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>5100.436306663317</v>
+        <v>5100.43630666331</v>
       </c>
       <c r="C272">
         <v>11585.22451200557</v>
       </c>
       <c r="D272">
-        <v>31690.08328314684</v>
+        <v>31690.08328314686</v>
       </c>
       <c r="E272">
         <v>54140.53891515992</v>
@@ -4998,13 +4998,13 @@
         <v>8319.120611200124</v>
       </c>
       <c r="C273">
-        <v>17404.44937380815</v>
+        <v>17404.44937380814</v>
       </c>
       <c r="D273">
-        <v>41554.0843729466</v>
+        <v>41554.08437294661</v>
       </c>
       <c r="E273">
-        <v>66942.41095520023</v>
+        <v>66942.41095520018</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>8319.120611200124</v>
       </c>
       <c r="C274">
-        <v>17404.44937380815</v>
+        <v>17404.44937380814</v>
       </c>
       <c r="D274">
-        <v>41554.0843729466</v>
+        <v>41554.08437294661</v>
       </c>
       <c r="E274">
-        <v>66942.41095520023</v>
+        <v>66942.41095520018</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5035,10 +5035,10 @@
         <v>18797.5454928979</v>
       </c>
       <c r="D275">
-        <v>38419.96132710436</v>
+        <v>38419.96132710435</v>
       </c>
       <c r="E275">
-        <v>57579.43236810486</v>
+        <v>57579.43236810483</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,16 +5046,16 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>6197.791506793254</v>
+        <v>6197.791506793253</v>
       </c>
       <c r="C276">
         <v>12685.04623939917</v>
       </c>
       <c r="D276">
-        <v>31447.81325744306</v>
+        <v>31447.81325744305</v>
       </c>
       <c r="E276">
-        <v>49569.64593351847</v>
+        <v>49569.6459335185</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5069,10 +5069,10 @@
         <v>24517.69761564913</v>
       </c>
       <c r="D277">
-        <v>45968.62179799898</v>
+        <v>45968.62179799899</v>
       </c>
       <c r="E277">
-        <v>66883.31067081359</v>
+        <v>66883.31067081357</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>19427.49464453036</v>
       </c>
       <c r="C278">
-        <v>32847.48691536744</v>
+        <v>32847.48691536745</v>
       </c>
       <c r="D278">
         <v>55931.38883816876</v>
       </c>
       <c r="E278">
-        <v>77565.5005289433</v>
+        <v>77565.50052894323</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>22832.13514648444</v>
+        <v>22832.13514648442</v>
       </c>
       <c r="C279">
-        <v>35155.69150007951</v>
+        <v>35155.69150007953</v>
       </c>
       <c r="D279">
-        <v>55141.08431881601</v>
+        <v>55141.084318816</v>
       </c>
       <c r="E279">
-        <v>74417.14586257949</v>
+        <v>74417.14586257945</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>22832.13514648444</v>
+        <v>22832.13514648442</v>
       </c>
       <c r="C280">
-        <v>35155.69150007951</v>
+        <v>35155.69150007953</v>
       </c>
       <c r="D280">
-        <v>55141.08431881601</v>
+        <v>55141.084318816</v>
       </c>
       <c r="E280">
-        <v>74417.14586257949</v>
+        <v>74417.14586257945</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5131,13 +5131,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7053.42771390953</v>
+        <v>7053.427713909531</v>
       </c>
       <c r="C281">
         <v>14354.55006866345</v>
       </c>
       <c r="D281">
-        <v>34069.34695649144</v>
+        <v>34069.34695649145</v>
       </c>
       <c r="E281">
         <v>53234.92437065326</v>
@@ -5148,16 +5148,16 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>6231.959135898595</v>
+        <v>6231.959135898594</v>
       </c>
       <c r="C282">
         <v>12639.66396722048</v>
       </c>
       <c r="D282">
-        <v>31169.72922310462</v>
+        <v>31169.72922310463</v>
       </c>
       <c r="E282">
-        <v>49129.95905597498</v>
+        <v>49129.95905597497</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>6231.959135898595</v>
+        <v>6231.959135898594</v>
       </c>
       <c r="C283">
         <v>12639.66396722048</v>
       </c>
       <c r="D283">
-        <v>31169.72922310462</v>
+        <v>31169.72922310463</v>
       </c>
       <c r="E283">
-        <v>49129.95905597498</v>
+        <v>49129.95905597497</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,16 +5182,16 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>6231.959135898595</v>
+        <v>6231.959135898594</v>
       </c>
       <c r="C284">
         <v>12639.66396722048</v>
       </c>
       <c r="D284">
-        <v>31169.72922310462</v>
+        <v>31169.72922310463</v>
       </c>
       <c r="E284">
-        <v>49129.95905597498</v>
+        <v>49129.95905597497</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>6197.791506793254</v>
+        <v>6197.791506793253</v>
       </c>
       <c r="C285">
         <v>12685.04623939917</v>
       </c>
       <c r="D285">
-        <v>31447.81325744306</v>
+        <v>31447.81325744305</v>
       </c>
       <c r="E285">
-        <v>49569.64593351847</v>
+        <v>49569.6459335185</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>22832.13514648444</v>
+        <v>22832.13514648442</v>
       </c>
       <c r="C286">
-        <v>35155.69150007951</v>
+        <v>35155.69150007953</v>
       </c>
       <c r="D286">
-        <v>55141.08431881601</v>
+        <v>55141.084318816</v>
       </c>
       <c r="E286">
-        <v>74417.14586257949</v>
+        <v>74417.14586257945</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>28873.17635233045</v>
+        <v>28873.17635233044</v>
       </c>
       <c r="C287">
-        <v>41368.96490047312</v>
+        <v>41368.96490047311</v>
       </c>
       <c r="D287">
-        <v>63286.41584067631</v>
+        <v>63286.4158406763</v>
       </c>
       <c r="E287">
-        <v>85089.42923224866</v>
+        <v>85089.42923224863</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5256,7 +5256,7 @@
         <v>35731.4058481045</v>
       </c>
       <c r="D288">
-        <v>58621.12134052727</v>
+        <v>58621.12134052729</v>
       </c>
       <c r="E288">
         <v>81043.83882926247</v>
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>28214.7312476759</v>
+        <v>28214.73124767588</v>
       </c>
       <c r="C289">
-        <v>41225.52718134192</v>
+        <v>41225.52718134193</v>
       </c>
       <c r="D289">
         <v>63341.78115482131</v>
       </c>
       <c r="E289">
-        <v>85064.88456722828</v>
+        <v>85064.88456722832</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>28873.17635233045</v>
+        <v>28873.17635233044</v>
       </c>
       <c r="C290">
-        <v>41368.96490047312</v>
+        <v>41368.96490047311</v>
       </c>
       <c r="D290">
-        <v>63286.41584067631</v>
+        <v>63286.4158406763</v>
       </c>
       <c r="E290">
-        <v>85089.42923224866</v>
+        <v>85089.42923224863</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5307,10 +5307,10 @@
         <v>32793.30187352347</v>
       </c>
       <c r="D291">
-        <v>55808.29490060669</v>
+        <v>55808.29490060671</v>
       </c>
       <c r="E291">
-        <v>78304.3932158602</v>
+        <v>78304.39321586021</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>22959.66142243298</v>
+        <v>22959.661422433</v>
       </c>
       <c r="C292">
-        <v>35695.39413369384</v>
+        <v>35695.39413369385</v>
       </c>
       <c r="D292">
-        <v>57809.06548548062</v>
+        <v>57809.0654854806</v>
       </c>
       <c r="E292">
-        <v>78745.86356529933</v>
+        <v>78745.86356529931</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,16 +5335,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>24083.46122395862</v>
+        <v>24083.46122395863</v>
       </c>
       <c r="C293">
         <v>36991.13116711193</v>
       </c>
       <c r="D293">
-        <v>59223.03376857095</v>
+        <v>59223.03376857093</v>
       </c>
       <c r="E293">
-        <v>80259.63970577398</v>
+        <v>80259.63970577397</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>22959.66142243298</v>
+        <v>22959.661422433</v>
       </c>
       <c r="C294">
-        <v>35695.39413369384</v>
+        <v>35695.39413369385</v>
       </c>
       <c r="D294">
-        <v>57809.06548548062</v>
+        <v>57809.0654854806</v>
       </c>
       <c r="E294">
-        <v>78745.86356529933</v>
+        <v>78745.86356529931</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>20301.46784932572</v>
+        <v>20301.46784932573</v>
       </c>
       <c r="C295">
         <v>30534.35126039568</v>
       </c>
       <c r="D295">
-        <v>52634.84974578999</v>
+        <v>52634.84974579002</v>
       </c>
       <c r="E295">
-        <v>75137.47027334227</v>
+        <v>75137.47027334226</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>23031.67613397746</v>
       </c>
       <c r="C296">
-        <v>33836.76342169341</v>
+        <v>33836.76342169339</v>
       </c>
       <c r="D296">
-        <v>56400.27022850177</v>
+        <v>56400.27022850178</v>
       </c>
       <c r="E296">
         <v>78944.77486546383</v>
@@ -5406,13 +5406,13 @@
         <v>22637.56977759024</v>
       </c>
       <c r="C297">
-        <v>34721.72602522979</v>
+        <v>34721.72602522981</v>
       </c>
       <c r="D297">
         <v>58721.6955245577</v>
       </c>
       <c r="E297">
-        <v>81574.2465287502</v>
+        <v>81574.24652875015</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>20653.23022639982</v>
       </c>
       <c r="C298">
-        <v>31091.63457402811</v>
+        <v>31091.63457402813</v>
       </c>
       <c r="D298">
-        <v>53400.99551148144</v>
+        <v>53400.99551148148</v>
       </c>
       <c r="E298">
-        <v>75914.96827176808</v>
+        <v>75914.96827176811</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5440,13 +5440,13 @@
         <v>20209.13598828363</v>
       </c>
       <c r="C299">
-        <v>31327.6999988211</v>
+        <v>31327.69999882109</v>
       </c>
       <c r="D299">
         <v>54829.91261459014</v>
       </c>
       <c r="E299">
-        <v>77856.30216435014</v>
+        <v>77856.30216435019</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>20301.46784932572</v>
+        <v>20301.46784932573</v>
       </c>
       <c r="C300">
         <v>30534.35126039568</v>
       </c>
       <c r="D300">
-        <v>52634.84974578999</v>
+        <v>52634.84974579002</v>
       </c>
       <c r="E300">
-        <v>75137.47027334227</v>
+        <v>75137.47027334226</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5474,13 +5474,13 @@
         <v>23526.31618208161</v>
       </c>
       <c r="C301">
-        <v>34780.88961654576</v>
+        <v>34780.88961654577</v>
       </c>
       <c r="D301">
-        <v>57795.78303867612</v>
+        <v>57795.78303867611</v>
       </c>
       <c r="E301">
-        <v>80459.55769926232</v>
+        <v>80459.5576992623</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5488,16 +5488,16 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>21602.31440884775</v>
+        <v>21602.31440884774</v>
       </c>
       <c r="C302">
         <v>32949.33085412021</v>
       </c>
       <c r="D302">
-        <v>56180.41932075245</v>
+        <v>56180.41932075246</v>
       </c>
       <c r="E302">
-        <v>79034.10995389527</v>
+        <v>79034.10995389528</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5505,16 +5505,16 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>21602.31440884775</v>
+        <v>21602.31440884774</v>
       </c>
       <c r="C303">
         <v>32949.33085412021</v>
       </c>
       <c r="D303">
-        <v>56180.41932075245</v>
+        <v>56180.41932075246</v>
       </c>
       <c r="E303">
-        <v>79034.10995389527</v>
+        <v>79034.10995389528</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5525,10 +5525,10 @@
         <v>17735.63587084357</v>
       </c>
       <c r="C304">
-        <v>27794.10721503881</v>
+        <v>27794.1072150388</v>
       </c>
       <c r="D304">
-        <v>50329.14082972596</v>
+        <v>50329.14082972598</v>
       </c>
       <c r="E304">
         <v>73313.58435204662</v>
@@ -5542,10 +5542,10 @@
         <v>17735.63587084357</v>
       </c>
       <c r="C305">
-        <v>27794.10721503881</v>
+        <v>27794.1072150388</v>
       </c>
       <c r="D305">
-        <v>50329.14082972596</v>
+        <v>50329.14082972598</v>
       </c>
       <c r="E305">
         <v>73313.58435204662</v>
@@ -5565,7 +5565,7 @@
         <v>46663.64562529398</v>
       </c>
       <c r="E306">
-        <v>69024.40550124609</v>
+        <v>69024.40550124612</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5576,10 +5576,10 @@
         <v>17735.63587084357</v>
       </c>
       <c r="C307">
-        <v>27794.10721503881</v>
+        <v>27794.1072150388</v>
       </c>
       <c r="D307">
-        <v>50329.14082972596</v>
+        <v>50329.14082972598</v>
       </c>
       <c r="E307">
         <v>73313.58435204662</v>
@@ -5593,13 +5593,13 @@
         <v>16802.72355088951</v>
       </c>
       <c r="C308">
-        <v>26267.71984034286</v>
+        <v>26267.71984034287</v>
       </c>
       <c r="D308">
-        <v>48005.78645505231</v>
+        <v>48005.7864550523</v>
       </c>
       <c r="E308">
-        <v>70721.55245652392</v>
+        <v>70721.5524565239</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5616,7 +5616,7 @@
         <v>46663.64562529398</v>
       </c>
       <c r="E309">
-        <v>69024.40550124609</v>
+        <v>69024.40550124612</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5627,13 +5627,13 @@
         <v>18188.55355733598</v>
       </c>
       <c r="C310">
-        <v>28704.5779810859</v>
+        <v>28704.57798108589</v>
       </c>
       <c r="D310">
-        <v>51766.55100969655</v>
+        <v>51766.55100969657</v>
       </c>
       <c r="E310">
-        <v>74986.47549143636</v>
+        <v>74986.47549143637</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7620.376439964752</v>
+        <v>7620.376439964751</v>
       </c>
       <c r="C311">
         <v>14034.11834335618</v>
       </c>
       <c r="D311">
-        <v>32949.4690542464</v>
+        <v>32949.46905424639</v>
       </c>
       <c r="E311">
-        <v>54220.92120155418</v>
+        <v>54220.92120155416</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>7620.376439964752</v>
+        <v>7620.376439964751</v>
       </c>
       <c r="C312">
         <v>14034.11834335618</v>
       </c>
       <c r="D312">
-        <v>32949.4690542464</v>
+        <v>32949.46905424639</v>
       </c>
       <c r="E312">
-        <v>54220.92120155418</v>
+        <v>54220.92120155416</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>7620.376439964752</v>
+        <v>7620.376439964751</v>
       </c>
       <c r="C313">
         <v>14034.11834335618</v>
       </c>
       <c r="D313">
-        <v>32949.4690542464</v>
+        <v>32949.46905424639</v>
       </c>
       <c r="E313">
-        <v>54220.92120155418</v>
+        <v>54220.92120155416</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>7620.376439964752</v>
+        <v>7620.376439964751</v>
       </c>
       <c r="C314">
         <v>14034.11834335618</v>
       </c>
       <c r="D314">
-        <v>32949.4690542464</v>
+        <v>32949.46905424639</v>
       </c>
       <c r="E314">
-        <v>54220.92120155418</v>
+        <v>54220.92120155416</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5712,13 +5712,13 @@
         <v>30973.20477669012</v>
       </c>
       <c r="C315">
-        <v>43973.15700822393</v>
+        <v>43973.15700822395</v>
       </c>
       <c r="D315">
-        <v>65654.97647514853</v>
+        <v>65654.97647514856</v>
       </c>
       <c r="E315">
-        <v>86528.29371224009</v>
+        <v>86528.29371224011</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>71362.73740080337</v>
       </c>
       <c r="E316">
-        <v>90427.52763636906</v>
+        <v>90427.52763636911</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>38533.55895881796</v>
+        <v>38533.55895881794</v>
       </c>
       <c r="C317">
-        <v>49828.30586023843</v>
+        <v>49828.30586023846</v>
       </c>
       <c r="D317">
-        <v>69169.80914238257</v>
+        <v>69169.80914238254</v>
       </c>
       <c r="E317">
-        <v>88730.32008091234</v>
+        <v>88730.32008091241</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,16 +5760,16 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>35981.21724698356</v>
+        <v>35981.21724698358</v>
       </c>
       <c r="C318">
-        <v>47490.95199611405</v>
+        <v>47490.95199611402</v>
       </c>
       <c r="D318">
-        <v>67872.26518343946</v>
+        <v>67872.26518343948</v>
       </c>
       <c r="E318">
-        <v>88178.01965066079</v>
+        <v>88178.0196506608</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5777,16 +5777,16 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>28594.02079005875</v>
+        <v>28594.02079005876</v>
       </c>
       <c r="C319">
-        <v>41012.55967157665</v>
+        <v>41012.55967157664</v>
       </c>
       <c r="D319">
-        <v>62557.75397213618</v>
+        <v>62557.75397213616</v>
       </c>
       <c r="E319">
-        <v>83712.58334372446</v>
+        <v>83712.58334372444</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>33109.57587409886</v>
+        <v>33109.57587409885</v>
       </c>
       <c r="C320">
-        <v>44602.79350976966</v>
+        <v>44602.79350976965</v>
       </c>
       <c r="D320">
-        <v>65243.46349376129</v>
+        <v>65243.4634937613</v>
       </c>
       <c r="E320">
-        <v>85930.25193954754</v>
+        <v>85930.25193954758</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>35908.78465711641</v>
+        <v>35908.78465711643</v>
       </c>
       <c r="C321">
-        <v>47252.59805108194</v>
+        <v>47252.59805108195</v>
       </c>
       <c r="D321">
-        <v>67351.49438204126</v>
+        <v>67351.49438204127</v>
       </c>
       <c r="E321">
-        <v>87570.72386334374</v>
+        <v>87570.7238633438</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5831,13 +5831,13 @@
         <v>29313.6343650873</v>
       </c>
       <c r="C322">
-        <v>42431.07145129401</v>
+        <v>42431.071451294</v>
       </c>
       <c r="D322">
         <v>64600.52789518961</v>
       </c>
       <c r="E322">
-        <v>85802.53061075884</v>
+        <v>85802.53061075888</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>33670.98395605695</v>
+        <v>33670.98395605694</v>
       </c>
       <c r="C323">
-        <v>44406.73579101506</v>
+        <v>44406.73579101505</v>
       </c>
       <c r="D323">
-        <v>64735.75615550536</v>
+        <v>64735.75615550534</v>
       </c>
       <c r="E323">
-        <v>85431.44561850181</v>
+        <v>85431.44561850184</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>33670.98395605695</v>
+        <v>33670.98395605694</v>
       </c>
       <c r="C324">
-        <v>44406.73579101506</v>
+        <v>44406.73579101505</v>
       </c>
       <c r="D324">
-        <v>64735.75615550536</v>
+        <v>64735.75615550534</v>
       </c>
       <c r="E324">
-        <v>85431.44561850181</v>
+        <v>85431.44561850184</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>33670.98395605695</v>
+        <v>33670.98395605694</v>
       </c>
       <c r="C325">
-        <v>44406.73579101506</v>
+        <v>44406.73579101505</v>
       </c>
       <c r="D325">
-        <v>64735.75615550536</v>
+        <v>64735.75615550534</v>
       </c>
       <c r="E325">
-        <v>85431.44561850181</v>
+        <v>85431.44561850184</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>39239.81462605849</v>
+        <v>39239.81462605848</v>
       </c>
       <c r="C326">
-        <v>50279.81361257772</v>
+        <v>50279.81361257776</v>
       </c>
       <c r="D326">
         <v>69386.25111656988</v>
       </c>
       <c r="E326">
-        <v>88857.06535108417</v>
+        <v>88857.06535108421</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5919,10 +5919,10 @@
         <v>37685.45968296829</v>
       </c>
       <c r="D327">
-        <v>61161.35849133309</v>
+        <v>61161.35849133306</v>
       </c>
       <c r="E327">
-        <v>82966.01711769962</v>
+        <v>82966.01711769961</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5936,10 +5936,10 @@
         <v>37685.45968296829</v>
       </c>
       <c r="D328">
-        <v>61161.35849133309</v>
+        <v>61161.35849133306</v>
       </c>
       <c r="E328">
-        <v>82966.01711769962</v>
+        <v>82966.01711769961</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5950,13 +5950,13 @@
         <v>22312.65425042891</v>
       </c>
       <c r="C329">
-        <v>35645.1931184441</v>
+        <v>35645.19311844411</v>
       </c>
       <c r="D329">
-        <v>59315.91492930739</v>
+        <v>59315.91492930733</v>
       </c>
       <c r="E329">
-        <v>81620.30654901353</v>
+        <v>81620.30654901352</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5970,10 +5970,10 @@
         <v>37685.45968296829</v>
       </c>
       <c r="D330">
-        <v>61161.35849133309</v>
+        <v>61161.35849133306</v>
       </c>
       <c r="E330">
-        <v>82966.01711769962</v>
+        <v>82966.01711769961</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>23065.73496862228</v>
+        <v>23065.73496862227</v>
       </c>
       <c r="C331">
-        <v>36531.31634556103</v>
+        <v>36531.31634556102</v>
       </c>
       <c r="D331">
-        <v>59763.66415917072</v>
+        <v>59763.66415917075</v>
       </c>
       <c r="E331">
-        <v>81613.27974551954</v>
+        <v>81613.27974551953</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>29066.91543361859</v>
+        <v>29066.91543361858</v>
       </c>
       <c r="C332">
-        <v>42431.18835317848</v>
+        <v>42431.18835317847</v>
       </c>
       <c r="D332">
         <v>65742.98900837191</v>
       </c>
       <c r="E332">
-        <v>87093.51243136478</v>
+        <v>87093.51243136475</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>33054.49263523125</v>
+        <v>33054.49263523124</v>
       </c>
       <c r="C333">
         <v>46442.55148129608</v>
       </c>
       <c r="D333">
-        <v>69434.70003337796</v>
+        <v>69434.70003337797</v>
       </c>
       <c r="E333">
-        <v>89787.07060933422</v>
+        <v>89787.07060933419</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,16 +6032,16 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>35812.18979801283</v>
+        <v>35812.18979801286</v>
       </c>
       <c r="C334">
-        <v>50251.62878966489</v>
+        <v>50251.6287896649</v>
       </c>
       <c r="D334">
-        <v>73148.40217358169</v>
+        <v>73148.40217358168</v>
       </c>
       <c r="E334">
-        <v>92451.57799913461</v>
+        <v>92451.57799913462</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>32870.96933510722</v>
+        <v>32870.96933510721</v>
       </c>
       <c r="C335">
-        <v>47498.51922675789</v>
+        <v>47498.51922675787</v>
       </c>
       <c r="D335">
-        <v>71240.68060843366</v>
+        <v>71240.68060843364</v>
       </c>
       <c r="E335">
-        <v>91311.07783186849</v>
+        <v>91311.07783186848</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6066,16 +6066,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>26125.62615983087</v>
+        <v>26125.62615983089</v>
       </c>
       <c r="C336">
-        <v>39075.98321757886</v>
+        <v>39075.98321757887</v>
       </c>
       <c r="D336">
-        <v>62438.03229635607</v>
+        <v>62438.03229635608</v>
       </c>
       <c r="E336">
-        <v>84282.40724967943</v>
+        <v>84282.40724967945</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6089,10 +6089,10 @@
         <v>22814.97264616156</v>
       </c>
       <c r="D337">
-        <v>37462.0929925126</v>
+        <v>37462.09299251261</v>
       </c>
       <c r="E337">
-        <v>50488.09035349029</v>
+        <v>50488.09035349027</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6100,16 +6100,16 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>15301.13893325446</v>
+        <v>15301.13893325445</v>
       </c>
       <c r="C338">
-        <v>24104.99096642085</v>
+        <v>24104.99096642084</v>
       </c>
       <c r="D338">
-        <v>38894.42071434879</v>
+        <v>38894.42071434878</v>
       </c>
       <c r="E338">
-        <v>51793.51537199327</v>
+        <v>51793.51537199328</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6123,10 +6123,10 @@
         <v>22814.97264616156</v>
       </c>
       <c r="D339">
-        <v>37462.0929925126</v>
+        <v>37462.09299251261</v>
       </c>
       <c r="E339">
-        <v>50488.09035349029</v>
+        <v>50488.09035349027</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6140,7 +6140,7 @@
         <v>20301.1449051216</v>
       </c>
       <c r="D340">
-        <v>34946.21254568796</v>
+        <v>34946.21254568794</v>
       </c>
       <c r="E340">
         <v>47586.140675963</v>
@@ -6157,7 +6157,7 @@
         <v>20301.1449051216</v>
       </c>
       <c r="D341">
-        <v>34946.21254568796</v>
+        <v>34946.21254568794</v>
       </c>
       <c r="E341">
         <v>47586.140675963</v>
@@ -6177,7 +6177,7 @@
         <v>39586.72098221182</v>
       </c>
       <c r="E342">
-        <v>53437.00960990017</v>
+        <v>53437.00960990016</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>39586.72098221182</v>
       </c>
       <c r="E343">
-        <v>53437.00960990017</v>
+        <v>53437.00960990016</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6208,7 +6208,7 @@
         <v>20301.1449051216</v>
       </c>
       <c r="D344">
-        <v>34946.21254568796</v>
+        <v>34946.21254568794</v>
       </c>
       <c r="E344">
         <v>47586.140675963</v>
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>8656.657482260329</v>
+        <v>8656.657482260327</v>
       </c>
       <c r="C345">
-        <v>15195.540647391</v>
+        <v>15195.54064739101</v>
       </c>
       <c r="D345">
-        <v>29366.58626827213</v>
+        <v>29366.58626827214</v>
       </c>
       <c r="E345">
-        <v>41535.24434104575</v>
+        <v>41535.24434104573</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>8656.657482260329</v>
+        <v>8656.657482260327</v>
       </c>
       <c r="C346">
-        <v>15195.540647391</v>
+        <v>15195.54064739101</v>
       </c>
       <c r="D346">
-        <v>29366.58626827213</v>
+        <v>29366.58626827214</v>
       </c>
       <c r="E346">
-        <v>41535.24434104575</v>
+        <v>41535.24434104573</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>8656.657482260329</v>
+        <v>8656.657482260327</v>
       </c>
       <c r="C347">
-        <v>15195.540647391</v>
+        <v>15195.54064739101</v>
       </c>
       <c r="D347">
-        <v>29366.58626827213</v>
+        <v>29366.58626827214</v>
       </c>
       <c r="E347">
-        <v>41535.24434104575</v>
+        <v>41535.24434104573</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>14325.23992445314</v>
+        <v>14325.23992445313</v>
       </c>
       <c r="C348">
-        <v>22903.04257910414</v>
+        <v>22903.04257910413</v>
       </c>
       <c r="D348">
         <v>37257.90230654727</v>
       </c>
       <c r="E348">
-        <v>49846.50960355042</v>
+        <v>49846.50960355037</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>14325.23992445314</v>
+        <v>14325.23992445313</v>
       </c>
       <c r="C349">
-        <v>22903.04257910414</v>
+        <v>22903.04257910413</v>
       </c>
       <c r="D349">
         <v>37257.90230654727</v>
       </c>
       <c r="E349">
-        <v>49846.50960355042</v>
+        <v>49846.50960355037</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>14325.23992445314</v>
+        <v>14325.23992445313</v>
       </c>
       <c r="C350">
-        <v>22903.04257910414</v>
+        <v>22903.04257910413</v>
       </c>
       <c r="D350">
         <v>37257.90230654727</v>
       </c>
       <c r="E350">
-        <v>49846.50960355042</v>
+        <v>49846.50960355037</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>6994.966066644634</v>
+        <v>6994.966066644636</v>
       </c>
       <c r="C351">
         <v>13181.12369211749</v>
@@ -6330,7 +6330,7 @@
         <v>27052.14136668422</v>
       </c>
       <c r="E351">
-        <v>38110.87205369839</v>
+        <v>38110.87205369841</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,7 +6338,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>6994.966066644634</v>
+        <v>6994.966066644636</v>
       </c>
       <c r="C352">
         <v>13181.12369211749</v>
@@ -6347,7 +6347,7 @@
         <v>27052.14136668422</v>
       </c>
       <c r="E352">
-        <v>38110.87205369839</v>
+        <v>38110.87205369841</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,13 +6355,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>19566.49212456168</v>
+        <v>19566.49212456167</v>
       </c>
       <c r="C353">
-        <v>28661.65180598146</v>
+        <v>28661.65180598147</v>
       </c>
       <c r="D353">
-        <v>43833.57500332272</v>
+        <v>43833.57500332273</v>
       </c>
       <c r="E353">
         <v>59711.63310063141</v>
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>16298.88761070855</v>
+        <v>16298.88761070854</v>
       </c>
       <c r="C354">
         <v>24363.58194554663</v>
       </c>
       <c r="D354">
-        <v>37993.51019297999</v>
+        <v>37993.51019297998</v>
       </c>
       <c r="E354">
-        <v>51347.92821927812</v>
+        <v>51347.92821927814</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,13 +6389,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>19566.49212456168</v>
+        <v>19566.49212456167</v>
       </c>
       <c r="C355">
-        <v>28661.65180598146</v>
+        <v>28661.65180598147</v>
       </c>
       <c r="D355">
-        <v>43833.57500332272</v>
+        <v>43833.57500332273</v>
       </c>
       <c r="E355">
         <v>59711.63310063141</v>
@@ -6409,13 +6409,13 @@
         <v>14593.7638504117</v>
       </c>
       <c r="C356">
-        <v>22546.67470041503</v>
+        <v>22546.67470041502</v>
       </c>
       <c r="D356">
         <v>36015.62236009695</v>
       </c>
       <c r="E356">
-        <v>48345.45273588548</v>
+        <v>48345.4527358855</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6426,13 +6426,13 @@
         <v>14593.7638504117</v>
       </c>
       <c r="C357">
-        <v>22546.67470041503</v>
+        <v>22546.67470041502</v>
       </c>
       <c r="D357">
         <v>36015.62236009695</v>
       </c>
       <c r="E357">
-        <v>48345.45273588548</v>
+        <v>48345.4527358855</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6443,13 +6443,13 @@
         <v>14593.7638504117</v>
       </c>
       <c r="C358">
-        <v>22546.67470041503</v>
+        <v>22546.67470041502</v>
       </c>
       <c r="D358">
         <v>36015.62236009695</v>
       </c>
       <c r="E358">
-        <v>48345.45273588548</v>
+        <v>48345.4527358855</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6457,10 +6457,10 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>7471.602168847733</v>
+        <v>7471.602168847732</v>
       </c>
       <c r="C359">
-        <v>14269.08288995482</v>
+        <v>14269.08288995483</v>
       </c>
       <c r="D359">
         <v>28270.00411796587</v>
@@ -6474,10 +6474,10 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>7471.602168847733</v>
+        <v>7471.602168847732</v>
       </c>
       <c r="C360">
-        <v>14269.08288995482</v>
+        <v>14269.08288995483</v>
       </c>
       <c r="D360">
         <v>28270.00411796587</v>
@@ -6494,10 +6494,10 @@
         <v>22216.61178997738</v>
       </c>
       <c r="C361">
-        <v>34550.0619300822</v>
+        <v>34550.06193008221</v>
       </c>
       <c r="D361">
-        <v>59021.95691621591</v>
+        <v>59021.95691621593</v>
       </c>
       <c r="E361">
         <v>81354.68649442865</v>
@@ -6511,13 +6511,13 @@
         <v>13105.95104839561</v>
       </c>
       <c r="C362">
-        <v>25518.00848697063</v>
+        <v>25518.00848697065</v>
       </c>
       <c r="D362">
-        <v>52580.00642615474</v>
+        <v>52580.00642615472</v>
       </c>
       <c r="E362">
-        <v>77450.61953263576</v>
+        <v>77450.61953263574</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6531,10 +6531,10 @@
         <v>21302.39179895455</v>
       </c>
       <c r="D363">
-        <v>47526.40960709173</v>
+        <v>47526.40960709176</v>
       </c>
       <c r="E363">
-        <v>73048.46970398068</v>
+        <v>73048.46970398066</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>23563.95382909004</v>
       </c>
       <c r="C364">
-        <v>33611.30501649338</v>
+        <v>33611.30501649337</v>
       </c>
       <c r="D364">
         <v>57090.77500898848</v>
       </c>
       <c r="E364">
-        <v>80723.16515626322</v>
+        <v>80723.16515626317</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>23563.95382909004</v>
       </c>
       <c r="C365">
-        <v>33611.30501649338</v>
+        <v>33611.30501649337</v>
       </c>
       <c r="D365">
         <v>57090.77500898848</v>
       </c>
       <c r="E365">
-        <v>80723.16515626322</v>
+        <v>80723.16515626317</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6585,7 +6585,7 @@
         <v>49152.76519979953</v>
       </c>
       <c r="E366">
-        <v>73913.49550390158</v>
+        <v>73913.49550390155</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6602,7 +6602,7 @@
         <v>49152.76519979953</v>
       </c>
       <c r="E367">
-        <v>73913.49550390158</v>
+        <v>73913.49550390155</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6619,7 +6619,7 @@
         <v>50887.53712585755</v>
       </c>
       <c r="E368">
-        <v>75196.21623221283</v>
+        <v>75196.21623221281</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6636,7 +6636,7 @@
         <v>49152.76519979953</v>
       </c>
       <c r="E369">
-        <v>73913.49550390158</v>
+        <v>73913.49550390155</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6650,10 +6650,10 @@
         <v>17429.45467250784</v>
       </c>
       <c r="D370">
-        <v>41545.40615948263</v>
+        <v>41545.40615948264</v>
       </c>
       <c r="E370">
-        <v>66602.23457160468</v>
+        <v>66602.23457160467</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6667,10 +6667,10 @@
         <v>17429.45467250784</v>
       </c>
       <c r="D371">
-        <v>41545.40615948263</v>
+        <v>41545.40615948264</v>
       </c>
       <c r="E371">
-        <v>66602.23457160468</v>
+        <v>66602.23457160467</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6684,10 +6684,10 @@
         <v>17429.45467250784</v>
       </c>
       <c r="D372">
-        <v>41545.40615948263</v>
+        <v>41545.40615948264</v>
       </c>
       <c r="E372">
-        <v>66602.23457160468</v>
+        <v>66602.23457160467</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>22744.18754812553</v>
       </c>
       <c r="C373">
-        <v>34376.90489585975</v>
+        <v>34376.90489585976</v>
       </c>
       <c r="D373">
-        <v>52478.2181532872</v>
+        <v>52478.21815328716</v>
       </c>
       <c r="E373">
         <v>69174.04457739627</v>
@@ -6718,10 +6718,10 @@
         <v>27575.52727183584</v>
       </c>
       <c r="D374">
-        <v>45111.34577707593</v>
+        <v>45111.34577707592</v>
       </c>
       <c r="E374">
-        <v>61633.02182871727</v>
+        <v>61633.02182871725</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6732,10 +6732,10 @@
         <v>22744.18754812553</v>
       </c>
       <c r="C375">
-        <v>34376.90489585975</v>
+        <v>34376.90489585976</v>
       </c>
       <c r="D375">
-        <v>52478.2181532872</v>
+        <v>52478.21815328716</v>
       </c>
       <c r="E375">
         <v>69174.04457739627</v>
@@ -6752,10 +6752,10 @@
         <v>28102.07840043273</v>
       </c>
       <c r="D376">
-        <v>45650.30080838511</v>
+        <v>45650.30080838513</v>
       </c>
       <c r="E376">
-        <v>62379.07772060968</v>
+        <v>62379.07772060966</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6769,10 +6769,10 @@
         <v>28102.07840043273</v>
       </c>
       <c r="D377">
-        <v>45650.30080838511</v>
+        <v>45650.30080838513</v>
       </c>
       <c r="E377">
-        <v>62379.07772060968</v>
+        <v>62379.07772060966</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6786,10 +6786,10 @@
         <v>40997.28881764811</v>
       </c>
       <c r="D378">
-        <v>57311.44453926933</v>
+        <v>57311.44453926935</v>
       </c>
       <c r="E378">
-        <v>73620.68750197325</v>
+        <v>73620.68750197324</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6803,10 +6803,10 @@
         <v>40997.28881764811</v>
       </c>
       <c r="D379">
-        <v>57311.44453926933</v>
+        <v>57311.44453926935</v>
       </c>
       <c r="E379">
-        <v>73620.68750197325</v>
+        <v>73620.68750197324</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6820,10 +6820,10 @@
         <v>40997.28881764811</v>
       </c>
       <c r="D380">
-        <v>57311.44453926933</v>
+        <v>57311.44453926935</v>
       </c>
       <c r="E380">
-        <v>73620.68750197325</v>
+        <v>73620.68750197324</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6837,10 +6837,10 @@
         <v>40997.28881764811</v>
       </c>
       <c r="D381">
-        <v>57311.44453926933</v>
+        <v>57311.44453926935</v>
       </c>
       <c r="E381">
-        <v>73620.68750197325</v>
+        <v>73620.68750197324</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6848,16 +6848,16 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>26007.75971106611</v>
+        <v>26007.7597110661</v>
       </c>
       <c r="C382">
-        <v>36466.19182943278</v>
+        <v>36466.19182943277</v>
       </c>
       <c r="D382">
-        <v>52885.05944305619</v>
+        <v>52885.0594430562</v>
       </c>
       <c r="E382">
-        <v>69314.00160112134</v>
+        <v>69314.00160112132</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,16 +6865,16 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>22285.85677321161</v>
+        <v>22285.8567732116</v>
       </c>
       <c r="C383">
-        <v>34698.9064417448</v>
+        <v>34698.90644174482</v>
       </c>
       <c r="D383">
-        <v>55174.44336635321</v>
+        <v>55174.44336635325</v>
       </c>
       <c r="E383">
-        <v>73984.81003506031</v>
+        <v>73984.81003506032</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6885,13 +6885,13 @@
         <v>21260.43123129893</v>
       </c>
       <c r="C384">
-        <v>32963.48225479997</v>
+        <v>32963.48225479998</v>
       </c>
       <c r="D384">
-        <v>52733.16023895156</v>
+        <v>52733.16023895158</v>
       </c>
       <c r="E384">
-        <v>71069.36855956528</v>
+        <v>71069.36855956525</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,7 +6899,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>33250.21338723561</v>
+        <v>33250.2133872356</v>
       </c>
       <c r="C385">
         <v>45647.67410817825</v>
@@ -6908,7 +6908,7 @@
         <v>64357.42574446055</v>
       </c>
       <c r="E385">
-        <v>82020.98782605924</v>
+        <v>82020.98782605925</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>13849.76426256459</v>
       </c>
       <c r="C386">
-        <v>24436.17023765424</v>
+        <v>24436.17023765425</v>
       </c>
       <c r="D386">
-        <v>45354.98711603676</v>
+        <v>45354.98711603681</v>
       </c>
       <c r="E386">
-        <v>65407.46374602165</v>
+        <v>65407.46374602169</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,13 +6936,13 @@
         <v>13849.76426256459</v>
       </c>
       <c r="C387">
-        <v>24436.17023765424</v>
+        <v>24436.17023765425</v>
       </c>
       <c r="D387">
-        <v>45354.98711603676</v>
+        <v>45354.98711603681</v>
       </c>
       <c r="E387">
-        <v>65407.46374602165</v>
+        <v>65407.46374602169</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>6490.655116764836</v>
+        <v>6490.655116764838</v>
       </c>
       <c r="C388">
         <v>10178.01909642844</v>
@@ -6959,7 +6959,7 @@
         <v>24668.93182471021</v>
       </c>
       <c r="E388">
-        <v>42410.07682089257</v>
+        <v>42410.07682089256</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6973,10 +6973,10 @@
         <v>8558.636476602605</v>
       </c>
       <c r="D389">
-        <v>25090.57971125575</v>
+        <v>25090.57971125576</v>
       </c>
       <c r="E389">
-        <v>45252.0455268044</v>
+        <v>45252.04552680445</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>8558.636476602605</v>
       </c>
       <c r="D390">
-        <v>25090.57971125575</v>
+        <v>25090.57971125576</v>
       </c>
       <c r="E390">
-        <v>45252.0455268044</v>
+        <v>45252.04552680445</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>6490.655116764836</v>
+        <v>6490.655116764838</v>
       </c>
       <c r="C391">
         <v>10178.01909642844</v>
@@ -7010,7 +7010,7 @@
         <v>24668.93182471021</v>
       </c>
       <c r="E391">
-        <v>42410.07682089257</v>
+        <v>42410.07682089256</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7024,10 +7024,10 @@
         <v>8558.636476602605</v>
       </c>
       <c r="D392">
-        <v>25090.57971125575</v>
+        <v>25090.57971125576</v>
       </c>
       <c r="E392">
-        <v>45252.0455268044</v>
+        <v>45252.04552680445</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>4005.256708201566</v>
+        <v>4005.256708201567</v>
       </c>
       <c r="C393">
         <v>7078.198221642521</v>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>4005.256708201566</v>
+        <v>4005.256708201567</v>
       </c>
       <c r="C394">
         <v>7078.198221642521</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>4224.524876040499</v>
+        <v>4224.524876040502</v>
       </c>
       <c r="C395">
-        <v>7680.841404918304</v>
+        <v>7680.841404918301</v>
       </c>
       <c r="D395">
         <v>20254.01224479883</v>
       </c>
       <c r="E395">
-        <v>34675.42695886721</v>
+        <v>34675.42695886723</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>4224.524876040499</v>
+        <v>4224.524876040502</v>
       </c>
       <c r="C396">
-        <v>7680.841404918304</v>
+        <v>7680.841404918301</v>
       </c>
       <c r="D396">
         <v>20254.01224479883</v>
       </c>
       <c r="E396">
-        <v>34675.42695886721</v>
+        <v>34675.42695886723</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>4427.137803445595</v>
+        <v>4427.137803445593</v>
       </c>
       <c r="C397">
-        <v>8050.742253632166</v>
+        <v>8050.742253632159</v>
       </c>
       <c r="D397">
         <v>21285.18686627444</v>
       </c>
       <c r="E397">
-        <v>36753.35090714621</v>
+        <v>36753.35090714618</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>4427.137803445595</v>
+        <v>4427.137803445593</v>
       </c>
       <c r="C398">
-        <v>8050.742253632166</v>
+        <v>8050.742253632159</v>
       </c>
       <c r="D398">
         <v>21285.18686627444</v>
       </c>
       <c r="E398">
-        <v>36753.35090714621</v>
+        <v>36753.35090714618</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,16 +7137,16 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>4438.050170283649</v>
+        <v>4438.05017028365</v>
       </c>
       <c r="C399">
-        <v>8309.030387914072</v>
+        <v>8309.030387914074</v>
       </c>
       <c r="D399">
-        <v>26415.35170840566</v>
+        <v>26415.35170840564</v>
       </c>
       <c r="E399">
-        <v>48488.15321959052</v>
+        <v>48488.15321959054</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>4158.270729143852</v>
+        <v>4158.27072914385</v>
       </c>
       <c r="C400">
-        <v>7910.553799945235</v>
+        <v>7910.553799945237</v>
       </c>
       <c r="D400">
-        <v>25964.3111056895</v>
+        <v>25964.31110568948</v>
       </c>
       <c r="E400">
-        <v>48189.30996913857</v>
+        <v>48189.30996913854</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,16 +7171,16 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>4438.050170283649</v>
+        <v>4438.05017028365</v>
       </c>
       <c r="C401">
-        <v>8309.030387914072</v>
+        <v>8309.030387914074</v>
       </c>
       <c r="D401">
-        <v>26415.35170840566</v>
+        <v>26415.35170840564</v>
       </c>
       <c r="E401">
-        <v>48488.15321959052</v>
+        <v>48488.15321959054</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7191,10 +7191,10 @@
         <v>3593.543120031121</v>
       </c>
       <c r="C402">
-        <v>6920.290226125763</v>
+        <v>6920.290226125764</v>
       </c>
       <c r="D402">
-        <v>23627.82513694935</v>
+        <v>23627.82513694936</v>
       </c>
       <c r="E402">
         <v>44151.40551934011</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>4158.270729143852</v>
+        <v>4158.27072914385</v>
       </c>
       <c r="C403">
-        <v>7910.553799945235</v>
+        <v>7910.553799945237</v>
       </c>
       <c r="D403">
-        <v>25964.3111056895</v>
+        <v>25964.31110568948</v>
       </c>
       <c r="E403">
-        <v>48189.30996913857</v>
+        <v>48189.30996913854</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,16 +7222,16 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>3556.204273517808</v>
+        <v>3556.204273517807</v>
       </c>
       <c r="C404">
-        <v>6711.666461299415</v>
+        <v>6711.666461299414</v>
       </c>
       <c r="D404">
-        <v>23207.3740546449</v>
+        <v>23207.37405464492</v>
       </c>
       <c r="E404">
-        <v>43508.58901724433</v>
+        <v>43508.58901724434</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7239,16 +7239,16 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>3556.204273517808</v>
+        <v>3556.204273517807</v>
       </c>
       <c r="C405">
-        <v>6711.666461299415</v>
+        <v>6711.666461299414</v>
       </c>
       <c r="D405">
-        <v>23207.3740546449</v>
+        <v>23207.37405464492</v>
       </c>
       <c r="E405">
-        <v>43508.58901724433</v>
+        <v>43508.58901724434</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7256,16 +7256,16 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>3556.204273517808</v>
+        <v>3556.204273517807</v>
       </c>
       <c r="C406">
-        <v>6711.666461299415</v>
+        <v>6711.666461299414</v>
       </c>
       <c r="D406">
-        <v>23207.3740546449</v>
+        <v>23207.37405464492</v>
       </c>
       <c r="E406">
-        <v>43508.58901724433</v>
+        <v>43508.58901724434</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>3164.874502130049</v>
+        <v>3164.874502130048</v>
       </c>
       <c r="C407">
-        <v>5957.370812148632</v>
+        <v>5957.37081214863</v>
       </c>
       <c r="D407">
         <v>21478.63498845285</v>
       </c>
       <c r="E407">
-        <v>40632.43052128554</v>
+        <v>40632.43052128552</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>3164.874502130049</v>
+        <v>3164.874502130048</v>
       </c>
       <c r="C408">
-        <v>5957.370812148632</v>
+        <v>5957.37081214863</v>
       </c>
       <c r="D408">
         <v>21478.63498845285</v>
       </c>
       <c r="E408">
-        <v>40632.43052128554</v>
+        <v>40632.43052128552</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>3164.874502130049</v>
+        <v>3164.874502130048</v>
       </c>
       <c r="C409">
-        <v>5957.370812148632</v>
+        <v>5957.37081214863</v>
       </c>
       <c r="D409">
         <v>21478.63498845285</v>
       </c>
       <c r="E409">
-        <v>40632.43052128554</v>
+        <v>40632.43052128552</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7330,10 +7330,10 @@
         <v>18914.88797916115</v>
       </c>
       <c r="D410">
-        <v>43196.62503579872</v>
+        <v>43196.62503579877</v>
       </c>
       <c r="E410">
-        <v>69547.43781536468</v>
+        <v>69547.4378153647</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>7835.6404242387</v>
+        <v>7835.640424238703</v>
       </c>
       <c r="C411">
         <v>14648.03832486152</v>
       </c>
       <c r="D411">
-        <v>36741.65382953152</v>
+        <v>36741.6538295315</v>
       </c>
       <c r="E411">
         <v>62183.70866406414</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>7835.6404242387</v>
+        <v>7835.640424238703</v>
       </c>
       <c r="C412">
         <v>14648.03832486152</v>
       </c>
       <c r="D412">
-        <v>36741.65382953152</v>
+        <v>36741.6538295315</v>
       </c>
       <c r="E412">
         <v>62183.70866406414</v>
@@ -7381,10 +7381,10 @@
         <v>13366.67863690278</v>
       </c>
       <c r="D413">
-        <v>35519.14311381677</v>
+        <v>35519.14311381678</v>
       </c>
       <c r="E413">
-        <v>60399.51116752479</v>
+        <v>60399.51116752473</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7398,10 +7398,10 @@
         <v>18914.88797916115</v>
       </c>
       <c r="D414">
-        <v>43196.62503579872</v>
+        <v>43196.62503579877</v>
       </c>
       <c r="E414">
-        <v>69547.43781536468</v>
+        <v>69547.4378153647</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>9071.271712141184</v>
+        <v>9071.271712141186</v>
       </c>
       <c r="C415">
         <v>16598.63423560475</v>
       </c>
       <c r="D415">
-        <v>40085.33486151005</v>
+        <v>40085.33486151007</v>
       </c>
       <c r="E415">
-        <v>66372.65791742112</v>
+        <v>66372.65791742109</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>9071.271712141184</v>
+        <v>9071.271712141186</v>
       </c>
       <c r="C416">
         <v>16598.63423560475</v>
       </c>
       <c r="D416">
-        <v>40085.33486151005</v>
+        <v>40085.33486151007</v>
       </c>
       <c r="E416">
-        <v>66372.65791742112</v>
+        <v>66372.65791742109</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7452,7 +7452,7 @@
         <v>30522.2036801082</v>
       </c>
       <c r="E417">
-        <v>54986.86681760869</v>
+        <v>54986.86681760868</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7469,7 +7469,7 @@
         <v>30522.2036801082</v>
       </c>
       <c r="E418">
-        <v>54986.86681760869</v>
+        <v>54986.86681760868</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D419">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E419">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7500,10 +7500,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D420">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E420">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>9645.135678284983</v>
       </c>
       <c r="C421">
-        <v>15931.28335309219</v>
+        <v>15931.2833530922</v>
       </c>
       <c r="D421">
-        <v>34717.27172315733</v>
+        <v>34717.27172315734</v>
       </c>
       <c r="E421">
-        <v>56388.10942019769</v>
+        <v>56388.10942019767</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>9645.135678284983</v>
       </c>
       <c r="C422">
-        <v>15931.28335309219</v>
+        <v>15931.2833530922</v>
       </c>
       <c r="D422">
-        <v>34717.27172315733</v>
+        <v>34717.27172315734</v>
       </c>
       <c r="E422">
-        <v>56388.10942019769</v>
+        <v>56388.10942019767</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7551,10 +7551,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D423">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E423">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7568,10 +7568,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D424">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E424">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>9645.135678284983</v>
       </c>
       <c r="C425">
-        <v>15931.28335309219</v>
+        <v>15931.2833530922</v>
       </c>
       <c r="D425">
-        <v>34717.27172315733</v>
+        <v>34717.27172315734</v>
       </c>
       <c r="E425">
-        <v>56388.10942019769</v>
+        <v>56388.10942019767</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7602,10 +7602,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D426">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E426">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7619,10 +7619,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D427">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E427">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7636,10 +7636,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D428">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E428">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7653,10 +7653,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D429">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E429">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7670,10 +7670,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D430">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E430">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>9645.135678284983</v>
       </c>
       <c r="C431">
-        <v>15931.28335309219</v>
+        <v>15931.2833530922</v>
       </c>
       <c r="D431">
-        <v>34717.27172315733</v>
+        <v>34717.27172315734</v>
       </c>
       <c r="E431">
-        <v>56388.10942019769</v>
+        <v>56388.10942019767</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7704,10 +7704,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D432">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E432">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D433">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E433">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,16 +7732,16 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>6793.319741534997</v>
+        <v>6793.319741534998</v>
       </c>
       <c r="C434">
         <v>11958.46879131384</v>
       </c>
       <c r="D434">
-        <v>28678.42309814008</v>
+        <v>28678.42309814007</v>
       </c>
       <c r="E434">
-        <v>47938.64827698874</v>
+        <v>47938.64827698871</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7755,10 +7755,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D435">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E435">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,16 +7766,16 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>4960.866806136533</v>
+        <v>4960.866806136534</v>
       </c>
       <c r="C436">
         <v>10459.77682164095</v>
       </c>
       <c r="D436">
-        <v>27921.40407161126</v>
+        <v>27921.40407161129</v>
       </c>
       <c r="E436">
-        <v>47701.77142409528</v>
+        <v>47701.7714240953</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7786,10 +7786,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C437">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D437">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E437">
         <v>39738.46166977716</v>
@@ -7803,10 +7803,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C438">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D438">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E438">
         <v>39738.46166977716</v>
@@ -7820,10 +7820,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C439">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D439">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E439">
         <v>39738.46166977716</v>
@@ -7837,10 +7837,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C440">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D440">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E440">
         <v>39738.46166977716</v>
@@ -7854,10 +7854,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C441">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D441">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E441">
         <v>39738.46166977716</v>
@@ -7871,10 +7871,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C442">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D442">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E442">
         <v>39738.46166977716</v>
@@ -7888,10 +7888,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C443">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D443">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E443">
         <v>39738.46166977716</v>
@@ -7905,10 +7905,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C444">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D444">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E444">
         <v>39738.46166977716</v>
@@ -7922,10 +7922,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C445">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D445">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E445">
         <v>39738.46166977716</v>
@@ -7939,10 +7939,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C446">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D446">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E446">
         <v>39738.46166977716</v>
@@ -7956,10 +7956,10 @@
         <v>4578.681174690466</v>
       </c>
       <c r="C447">
-        <v>8863.323830871701</v>
+        <v>8863.323830871697</v>
       </c>
       <c r="D447">
-        <v>23471.62681919179</v>
+        <v>23471.6268191918</v>
       </c>
       <c r="E447">
         <v>39738.46166977716</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C448">
         <v>20832.67200332459</v>
       </c>
       <c r="D448">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E448">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C449">
         <v>20832.67200332459</v>
       </c>
       <c r="D449">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E449">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C450">
         <v>20832.67200332459</v>
       </c>
       <c r="D450">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E450">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C451">
         <v>20832.67200332459</v>
       </c>
       <c r="D451">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E451">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8038,16 +8038,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C452">
         <v>20832.67200332459</v>
       </c>
       <c r="D452">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E452">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8055,16 +8055,16 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C453">
         <v>20832.67200332459</v>
       </c>
       <c r="D453">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E453">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8231,10 +8231,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D463">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E463">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,10 +8248,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D464">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E464">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,16 +8259,16 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>6793.319741534997</v>
+        <v>6793.319741534998</v>
       </c>
       <c r="C465">
         <v>11958.46879131384</v>
       </c>
       <c r="D465">
-        <v>28678.42309814008</v>
+        <v>28678.42309814007</v>
       </c>
       <c r="E465">
-        <v>47938.64827698874</v>
+        <v>47938.64827698871</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8276,16 +8276,16 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>6793.319741534997</v>
+        <v>6793.319741534998</v>
       </c>
       <c r="C466">
         <v>11958.46879131384</v>
       </c>
       <c r="D466">
-        <v>28678.42309814008</v>
+        <v>28678.42309814007</v>
       </c>
       <c r="E466">
-        <v>47938.64827698874</v>
+        <v>47938.64827698871</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8299,10 +8299,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D467">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E467">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,16 +8310,16 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C468">
         <v>20832.67200332459</v>
       </c>
       <c r="D468">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E468">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C469">
         <v>20832.67200332459</v>
       </c>
       <c r="D469">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E469">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>12893.01827959157</v>
+        <v>12893.01827959156</v>
       </c>
       <c r="C470">
         <v>20832.67200332459</v>
       </c>
       <c r="D470">
-        <v>41363.97031216613</v>
+        <v>41363.97031216615</v>
       </c>
       <c r="E470">
-        <v>64281.22742342873</v>
+        <v>64281.22742342875</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8367,10 +8367,10 @@
         <v>16401.09313554707</v>
       </c>
       <c r="D471">
-        <v>35773.58947800101</v>
+        <v>35773.58947800102</v>
       </c>
       <c r="E471">
-        <v>58060.45389415188</v>
+        <v>58060.45389415191</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8395,16 +8395,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>6793.319741534997</v>
+        <v>6793.319741534998</v>
       </c>
       <c r="C473">
         <v>11958.46879131384</v>
       </c>
       <c r="D473">
-        <v>28678.42309814008</v>
+        <v>28678.42309814007</v>
       </c>
       <c r="E473">
-        <v>47938.64827698874</v>
+        <v>47938.64827698871</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8412,16 +8412,16 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>6793.319741534997</v>
+        <v>6793.319741534998</v>
       </c>
       <c r="C474">
         <v>11958.46879131384</v>
       </c>
       <c r="D474">
-        <v>28678.42309814008</v>
+        <v>28678.42309814007</v>
       </c>
       <c r="E474">
-        <v>47938.64827698874</v>
+        <v>47938.64827698871</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>4960.866806136533</v>
+        <v>4960.866806136534</v>
       </c>
       <c r="C475">
         <v>10459.77682164095</v>
       </c>
       <c r="D475">
-        <v>27921.40407161126</v>
+        <v>27921.40407161129</v>
       </c>
       <c r="E475">
-        <v>47701.77142409528</v>
+        <v>47701.7714240953</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>5837.098359159221</v>
+        <v>5837.09835915922</v>
       </c>
       <c r="C476">
         <v>10911.39131146515</v>
       </c>
       <c r="D476">
-        <v>27888.06996338752</v>
+        <v>27888.06996338751</v>
       </c>
       <c r="E476">
-        <v>47105.64839161358</v>
+        <v>47105.64839161353</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>5837.098359159221</v>
+        <v>5837.09835915922</v>
       </c>
       <c r="C477">
         <v>10911.39131146515</v>
       </c>
       <c r="D477">
-        <v>27888.06996338752</v>
+        <v>27888.06996338751</v>
       </c>
       <c r="E477">
-        <v>47105.64839161358</v>
+        <v>47105.64839161353</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>8300.605587639469</v>
+        <v>8300.605587639471</v>
       </c>
       <c r="C478">
         <v>13530.58984839128</v>
       </c>
       <c r="D478">
-        <v>31526.72874103836</v>
+        <v>31526.72874103835</v>
       </c>
       <c r="E478">
-        <v>53055.37196613603</v>
+        <v>53055.37196613606</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,16 +8497,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>7647.95634093136</v>
+        <v>7647.956340931361</v>
       </c>
       <c r="C479">
-        <v>12449.67438563357</v>
+        <v>12449.67438563356</v>
       </c>
       <c r="D479">
         <v>29697.69378187847</v>
       </c>
       <c r="E479">
-        <v>50569.24689971253</v>
+        <v>50569.24689971255</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8514,16 +8514,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>8453.570773123385</v>
+        <v>8453.570773123382</v>
       </c>
       <c r="C480">
         <v>13908.50495559862</v>
       </c>
       <c r="D480">
-        <v>32532.3298967406</v>
+        <v>32532.32989674061</v>
       </c>
       <c r="E480">
-        <v>54745.21321559295</v>
+        <v>54745.21321559294</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>8300.605587639469</v>
+        <v>8300.605587639471</v>
       </c>
       <c r="C481">
         <v>13530.58984839128</v>
       </c>
       <c r="D481">
-        <v>31526.72874103836</v>
+        <v>31526.72874103835</v>
       </c>
       <c r="E481">
-        <v>53055.37196613603</v>
+        <v>53055.37196613606</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>8300.605587639469</v>
+        <v>8300.605587639471</v>
       </c>
       <c r="C482">
         <v>13530.58984839128</v>
       </c>
       <c r="D482">
-        <v>31526.72874103836</v>
+        <v>31526.72874103835</v>
       </c>
       <c r="E482">
-        <v>53055.37196613603</v>
+        <v>53055.37196613606</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>8300.605587639469</v>
+        <v>8300.605587639471</v>
       </c>
       <c r="C483">
         <v>13530.58984839128</v>
       </c>
       <c r="D483">
-        <v>31526.72874103836</v>
+        <v>31526.72874103835</v>
       </c>
       <c r="E483">
-        <v>53055.37196613603</v>
+        <v>53055.37196613606</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>8300.605587639469</v>
+        <v>8300.605587639471</v>
       </c>
       <c r="C484">
         <v>13530.58984839128</v>
       </c>
       <c r="D484">
-        <v>31526.72874103836</v>
+        <v>31526.72874103835</v>
       </c>
       <c r="E484">
-        <v>53055.37196613603</v>
+        <v>53055.37196613606</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>8453.570773123385</v>
+        <v>8453.570773123382</v>
       </c>
       <c r="C485">
         <v>13908.50495559862</v>
       </c>
       <c r="D485">
-        <v>32532.3298967406</v>
+        <v>32532.32989674061</v>
       </c>
       <c r="E485">
-        <v>54745.21321559295</v>
+        <v>54745.21321559294</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,10 +8616,10 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>8349.715304969035</v>
+        <v>8349.715304969033</v>
       </c>
       <c r="C486">
-        <v>13648.85373663152</v>
+        <v>13648.85373663153</v>
       </c>
       <c r="D486">
         <v>31896.13752564936</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>7556.466641433878</v>
+        <v>7556.466641433877</v>
       </c>
       <c r="C487">
-        <v>12298.97460191007</v>
+        <v>12298.97460191006</v>
       </c>
       <c r="D487">
         <v>29078.11367465239</v>
       </c>
       <c r="E487">
-        <v>49190.63453548291</v>
+        <v>49190.63453548287</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8656,10 +8656,10 @@
         <v>11707.74618228347</v>
       </c>
       <c r="D488">
-        <v>29203.44307508519</v>
+        <v>29203.4430750852</v>
       </c>
       <c r="E488">
-        <v>49547.13487142913</v>
+        <v>49547.13487142912</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8673,10 +8673,10 @@
         <v>11707.74618228347</v>
       </c>
       <c r="D489">
-        <v>29203.44307508519</v>
+        <v>29203.4430750852</v>
       </c>
       <c r="E489">
-        <v>49547.13487142913</v>
+        <v>49547.13487142912</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8687,13 +8687,13 @@
         <v>11442.73749121444</v>
       </c>
       <c r="C490">
-        <v>19209.19150324614</v>
+        <v>19209.19150324613</v>
       </c>
       <c r="D490">
-        <v>41160.32937211987</v>
+        <v>41160.32937211988</v>
       </c>
       <c r="E490">
-        <v>65799.41371498017</v>
+        <v>65799.41371498015</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>11442.73749121444</v>
       </c>
       <c r="C491">
-        <v>19209.19150324614</v>
+        <v>19209.19150324613</v>
       </c>
       <c r="D491">
-        <v>41160.32937211987</v>
+        <v>41160.32937211988</v>
       </c>
       <c r="E491">
-        <v>65799.41371498017</v>
+        <v>65799.41371498015</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8721,13 +8721,13 @@
         <v>11442.73749121444</v>
       </c>
       <c r="C492">
-        <v>19209.19150324614</v>
+        <v>19209.19150324613</v>
       </c>
       <c r="D492">
-        <v>41160.32937211987</v>
+        <v>41160.32937211988</v>
       </c>
       <c r="E492">
-        <v>65799.41371498017</v>
+        <v>65799.41371498015</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8738,13 +8738,13 @@
         <v>11442.73749121444</v>
       </c>
       <c r="C493">
-        <v>19209.19150324614</v>
+        <v>19209.19150324613</v>
       </c>
       <c r="D493">
-        <v>41160.32937211987</v>
+        <v>41160.32937211988</v>
       </c>
       <c r="E493">
-        <v>65799.41371498017</v>
+        <v>65799.41371498015</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8755,13 +8755,13 @@
         <v>11442.73749121444</v>
       </c>
       <c r="C494">
-        <v>19209.19150324614</v>
+        <v>19209.19150324613</v>
       </c>
       <c r="D494">
-        <v>41160.32937211987</v>
+        <v>41160.32937211988</v>
       </c>
       <c r="E494">
-        <v>65799.41371498017</v>
+        <v>65799.41371498015</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>8305.904342861542</v>
+        <v>8305.904342861546</v>
       </c>
       <c r="C495">
         <v>17009.26186518479</v>
       </c>
       <c r="D495">
-        <v>40686.63904149227</v>
+        <v>40686.63904149229</v>
       </c>
       <c r="E495">
-        <v>66394.06562335294</v>
+        <v>66394.06562335297</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,10 +8789,10 @@
         <v>10931.30241403989</v>
       </c>
       <c r="C496">
-        <v>20031.48860591485</v>
+        <v>20031.48860591484</v>
       </c>
       <c r="D496">
-        <v>43797.78281897934</v>
+        <v>43797.78281897936</v>
       </c>
       <c r="E496">
         <v>69325.282852038</v>
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>8305.904342861542</v>
+        <v>8305.904342861546</v>
       </c>
       <c r="C497">
         <v>17009.26186518479</v>
       </c>
       <c r="D497">
-        <v>40686.63904149227</v>
+        <v>40686.63904149229</v>
       </c>
       <c r="E497">
-        <v>66394.06562335294</v>
+        <v>66394.06562335297</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,16 +8820,16 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>9413.877385957034</v>
+        <v>9413.877385957032</v>
       </c>
       <c r="C498">
-        <v>17910.78236687552</v>
+        <v>17910.78236687551</v>
       </c>
       <c r="D498">
-        <v>39244.59806183987</v>
+        <v>39244.59806183988</v>
       </c>
       <c r="E498">
-        <v>62498.76428003184</v>
+        <v>62498.76428003186</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,16 +8837,16 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>9413.877385957034</v>
+        <v>9413.877385957032</v>
       </c>
       <c r="C499">
-        <v>17910.78236687552</v>
+        <v>17910.78236687551</v>
       </c>
       <c r="D499">
-        <v>39244.59806183987</v>
+        <v>39244.59806183988</v>
       </c>
       <c r="E499">
-        <v>62498.76428003184</v>
+        <v>62498.76428003186</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,16 +8854,16 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>9413.877385957034</v>
+        <v>9413.877385957032</v>
       </c>
       <c r="C500">
-        <v>17910.78236687552</v>
+        <v>17910.78236687551</v>
       </c>
       <c r="D500">
-        <v>39244.59806183987</v>
+        <v>39244.59806183988</v>
       </c>
       <c r="E500">
-        <v>62498.76428003184</v>
+        <v>62498.76428003186</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>7117.385463641888</v>
+        <v>7117.38546364189</v>
       </c>
       <c r="C501">
         <v>12917.06143369572</v>
@@ -8880,7 +8880,7 @@
         <v>30726.98440609016</v>
       </c>
       <c r="E501">
-        <v>51359.22350487782</v>
+        <v>51359.22350487779</v>
       </c>
     </row>
   </sheetData>
